--- a/Backlog/NetProbe_Scrum.xlsx
+++ b/Backlog/NetProbe_Scrum.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="218">
   <si>
     <t>ID</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t xml:space="preserve">Creation of a project file's copy with the same name as the project </t>
+  </si>
+  <si>
+    <t>finished the 26/04/2018</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1276,6 +1279,133 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,15 +1415,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1303,106 +1424,130 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1423,131 +1568,152 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1555,11 +1721,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1570,42 +1751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1615,147 +1760,47 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6565,22 +6610,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:45" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -6629,19 +6674,19 @@
     <row r="4" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -6649,10 +6694,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="76"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -6660,12 +6705,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="8"/>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="53"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="51"/>
     </row>
     <row r="5" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -6695,13 +6740,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="8"/>
-      <c r="AL5" s="51" t="s">
+      <c r="AL5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="53"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="51"/>
     </row>
     <row r="6" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -6712,8 +6757,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -6741,8 +6786,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6760,30 +6805,30 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="32">
+      <c r="AB7" s="69">
         <v>5</v>
       </c>
-      <c r="AC7" s="39">
+      <c r="AC7" s="57">
         <v>5</v>
       </c>
-      <c r="AD7" s="42">
+      <c r="AD7" s="60">
         <v>10</v>
       </c>
-      <c r="AE7" s="45">
+      <c r="AE7" s="63">
         <v>15</v>
       </c>
-      <c r="AF7" s="45">
+      <c r="AF7" s="63">
         <v>20</v>
       </c>
-      <c r="AG7" s="48">
+      <c r="AG7" s="66">
         <v>25</v>
       </c>
-      <c r="AO7" s="63" t="s">
+      <c r="AO7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="65"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="38"/>
     </row>
     <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -6794,8 +6839,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -6813,12 +6858,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="49"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="67"/>
       <c r="AJ8" s="11" t="s">
         <v>72</v>
       </c>
@@ -6847,8 +6892,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6866,22 +6911,22 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47"/>
-      <c r="AG9" s="50"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="68"/>
       <c r="AJ9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="AK9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AM9" s="56" t="s">
+      <c r="AM9" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AN9" s="57"/>
+      <c r="AN9" s="56"/>
       <c r="AO9" s="11" t="s">
         <v>74</v>
       </c>
@@ -6907,8 +6952,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -6926,22 +6971,22 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="32">
+      <c r="AB10" s="69">
         <v>4</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="57">
         <v>4</v>
       </c>
-      <c r="AD10" s="42">
+      <c r="AD10" s="60">
         <v>8</v>
       </c>
-      <c r="AE10" s="42">
+      <c r="AE10" s="60">
         <v>12</v>
       </c>
-      <c r="AF10" s="45">
+      <c r="AF10" s="63">
         <v>16</v>
       </c>
-      <c r="AG10" s="45">
+      <c r="AG10" s="63">
         <v>20</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -6950,10 +6995,10 @@
       <c r="AK10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM10" s="58" t="s">
+      <c r="AM10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AN10" s="59"/>
+      <c r="AN10" s="40"/>
       <c r="AO10" s="13" t="s">
         <v>119</v>
       </c>
@@ -6980,8 +7025,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -6999,22 +7044,22 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="46"/>
-      <c r="AG11" s="46"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
       <c r="AJ11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AK11" s="54" t="s">
+      <c r="AK11" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AM11" s="58" t="s">
+      <c r="AM11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AN11" s="59"/>
+      <c r="AN11" s="40"/>
       <c r="AO11" s="13" t="s">
         <v>119</v>
       </c>
@@ -7041,8 +7086,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -7060,20 +7105,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
       <c r="AJ12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK12" s="55"/>
-      <c r="AM12" s="60" t="s">
+      <c r="AK12" s="54"/>
+      <c r="AM12" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AN12" s="61"/>
+      <c r="AN12" s="44"/>
       <c r="AO12" s="13" t="s">
         <v>119</v>
       </c>
@@ -7100,8 +7145,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -7119,22 +7164,22 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="32">
+      <c r="AB13" s="69">
         <v>3</v>
       </c>
-      <c r="AC13" s="39">
+      <c r="AC13" s="57">
         <v>3</v>
       </c>
-      <c r="AD13" s="42">
+      <c r="AD13" s="60">
         <v>6</v>
       </c>
-      <c r="AE13" s="42">
+      <c r="AE13" s="60">
         <v>9</v>
       </c>
-      <c r="AF13" s="42">
+      <c r="AF13" s="60">
         <v>12</v>
       </c>
-      <c r="AG13" s="45">
+      <c r="AG13" s="63">
         <v>15</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -7143,10 +7188,10 @@
       <c r="AK13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AM13" s="60" t="s">
+      <c r="AM13" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AN13" s="61"/>
+      <c r="AN13" s="44"/>
       <c r="AO13" s="13" t="s">
         <v>120</v>
       </c>
@@ -7173,8 +7218,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -7192,22 +7237,22 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="43"/>
-      <c r="AG14" s="46"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="64"/>
       <c r="AJ14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM14" s="66" t="s">
+      <c r="AM14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="AN14" s="67"/>
+      <c r="AN14" s="42"/>
       <c r="AO14" s="13" t="s">
         <v>119</v>
       </c>
@@ -7234,8 +7279,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -7253,22 +7298,22 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="47"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="65"/>
       <c r="AJ15" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM15" s="66" t="s">
+      <c r="AM15" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AN15" s="67"/>
+      <c r="AN15" s="42"/>
       <c r="AO15" s="13" t="s">
         <v>117</v>
       </c>
@@ -7295,8 +7340,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -7314,22 +7359,22 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="32">
+      <c r="AB16" s="69">
         <v>2</v>
       </c>
-      <c r="AC16" s="39">
+      <c r="AC16" s="57">
         <v>2</v>
       </c>
-      <c r="AD16" s="39">
+      <c r="AD16" s="57">
         <v>4</v>
       </c>
-      <c r="AE16" s="42">
+      <c r="AE16" s="60">
         <v>6</v>
       </c>
-      <c r="AF16" s="42">
+      <c r="AF16" s="60">
         <v>8</v>
       </c>
-      <c r="AG16" s="42">
+      <c r="AG16" s="60">
         <v>10</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -7338,10 +7383,10 @@
       <c r="AK16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM16" s="66" t="s">
+      <c r="AM16" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AN16" s="67"/>
+      <c r="AN16" s="42"/>
       <c r="AO16" s="13" t="s">
         <v>117</v>
       </c>
@@ -7368,8 +7413,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -7387,22 +7432,22 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
       <c r="AJ17" s="10" t="s">
         <v>93</v>
       </c>
       <c r="AK17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AM17" s="66" t="s">
+      <c r="AM17" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AN17" s="67"/>
+      <c r="AN17" s="42"/>
       <c r="AO17" s="13" t="s">
         <v>117</v>
       </c>
@@ -7429,8 +7474,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -7448,22 +7493,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="44"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
       <c r="AJ18" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AM18" s="66" t="s">
+      <c r="AM18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="67"/>
+      <c r="AN18" s="42"/>
       <c r="AO18" s="13" t="s">
         <v>117</v>
       </c>
@@ -7509,22 +7554,22 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="32">
+      <c r="AB19" s="69">
         <v>1</v>
       </c>
-      <c r="AC19" s="39">
+      <c r="AC19" s="57">
         <v>1</v>
       </c>
-      <c r="AD19" s="39">
+      <c r="AD19" s="57">
         <v>2</v>
       </c>
-      <c r="AE19" s="39">
+      <c r="AE19" s="57">
         <v>3</v>
       </c>
-      <c r="AF19" s="39">
+      <c r="AF19" s="57">
         <v>4</v>
       </c>
-      <c r="AG19" s="39">
+      <c r="AG19" s="57">
         <v>5</v>
       </c>
       <c r="AJ19" s="14" t="s">
@@ -7533,10 +7578,10 @@
       <c r="AK19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM19" s="66" t="s">
+      <c r="AM19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AN19" s="67"/>
+      <c r="AN19" s="42"/>
       <c r="AO19" s="13" t="s">
         <v>117</v>
       </c>
@@ -7582,22 +7627,22 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="40"/>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
       <c r="AJ20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM20" s="58" t="s">
+      <c r="AM20" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="AN20" s="59"/>
+      <c r="AN20" s="40"/>
       <c r="AO20" s="13" t="s">
         <v>117</v>
       </c>
@@ -7643,22 +7688,22 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
       <c r="AJ21" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM21" s="66" t="s">
+      <c r="AM21" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AN21" s="67"/>
+      <c r="AN21" s="42"/>
       <c r="AO21" s="13" t="s">
         <v>117</v>
       </c>
@@ -7704,25 +7749,25 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="8"/>
-      <c r="AC22" s="32">
+      <c r="AC22" s="69">
         <v>1</v>
       </c>
-      <c r="AD22" s="32">
+      <c r="AD22" s="69">
         <v>2</v>
       </c>
-      <c r="AE22" s="32">
+      <c r="AE22" s="69">
         <v>3</v>
       </c>
-      <c r="AF22" s="32">
+      <c r="AF22" s="69">
         <v>4</v>
       </c>
-      <c r="AG22" s="32">
+      <c r="AG22" s="69">
         <v>5</v>
       </c>
-      <c r="AM22" s="66" t="s">
+      <c r="AM22" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="AN22" s="67"/>
+      <c r="AN22" s="42"/>
       <c r="AO22" s="13" t="s">
         <v>117</v>
       </c>
@@ -7768,15 +7813,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AM23" s="60" t="s">
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AM23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AN23" s="61"/>
+      <c r="AN23" s="44"/>
       <c r="AO23" s="13" t="s">
         <v>118</v>
       </c>
@@ -7822,15 +7867,15 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="8"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AM24" s="68" t="s">
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AM24" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="AN24" s="69"/>
+      <c r="AN24" s="46"/>
       <c r="AO24" s="22" t="s">
         <v>117</v>
       </c>
@@ -7876,10 +7921,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="8"/>
-      <c r="AM25" s="70" t="s">
+      <c r="AM25" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AN25" s="71"/>
+      <c r="AN25" s="48"/>
       <c r="AO25" s="13" t="s">
         <v>117</v>
       </c>
@@ -7925,10 +7970,10 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="8"/>
-      <c r="AM26" s="62" t="s">
+      <c r="AM26" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AN26" s="62"/>
+      <c r="AN26" s="35"/>
       <c r="AO26" s="24"/>
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
@@ -7963,10 +8008,10 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="8"/>
-      <c r="AM27" s="29" t="s">
+      <c r="AM27" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="AN27" s="30"/>
+      <c r="AN27" s="73"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -8640,29 +8685,29 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="36" t="s">
+      <c r="K51" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="36"/>
+      <c r="L51" s="76"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="36" t="s">
+      <c r="S51" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="36"/>
+      <c r="T51" s="76"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -8739,8 +8784,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -9260,12 +9305,12 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="38" t="s">
+      <c r="I72" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -9963,20 +10008,45 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="I6:J18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="AB13:AB15"/>
+    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="I72:L72"/>
     <mergeCell ref="AK11:AK12"/>
@@ -9993,45 +10063,20 @@
     <mergeCell ref="AG16:AG18"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="I6:J18"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AB13:AB15"/>
-    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM19:AN19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10131,14 +10176,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="100" t="s">
+      <c r="M6" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="116"/>
       <c r="S6" s="26" t="s">
         <v>2</v>
       </c>
@@ -10158,1651 +10203,1651 @@
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="84" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="105"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="119"/>
       <c r="S7" s="27" t="s">
         <v>45</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="84" t="s">
+      <c r="U7" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="W7" s="84" t="s">
+      <c r="V7" s="103"/>
+      <c r="W7" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="84" t="s">
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="86"/>
+      <c r="AB7" s="103"/>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="82" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="78">
+      <c r="N8" s="80">
         <v>5</v>
       </c>
-      <c r="O8" s="91"/>
-      <c r="P8" s="94" t="s">
+      <c r="O8" s="94"/>
+      <c r="P8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="96"/>
-      <c r="S8" s="82" t="s">
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="78">
+      <c r="U8" s="80">
         <v>5</v>
       </c>
-      <c r="V8" s="79"/>
-      <c r="W8" s="72" t="s">
+      <c r="V8" s="81"/>
+      <c r="W8" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="79"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="81"/>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="92"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="95"/>
       <c r="P9" s="97"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="81"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="83"/>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="112" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="82" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="78">
         <v>4</v>
       </c>
-      <c r="O10" s="91"/>
-      <c r="P10" s="94" t="s">
+      <c r="O10" s="94"/>
+      <c r="P10" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="82" t="s">
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="82" t="s">
+      <c r="T10" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="78">
+      <c r="U10" s="80">
         <v>1</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="72" t="s">
+      <c r="V10" s="81"/>
+      <c r="W10" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="79"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="92"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="95"/>
       <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="81"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="83"/>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="112" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="82" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="82">
+      <c r="N12" s="78">
         <v>10</v>
       </c>
-      <c r="O12" s="106"/>
-      <c r="P12" s="94" t="s">
+      <c r="O12" s="112"/>
+      <c r="P12" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="82" t="s">
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="82" t="s">
+      <c r="T12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="V12" s="79"/>
-      <c r="W12" s="72" t="s">
+      <c r="V12" s="81"/>
+      <c r="W12" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="79"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="81"/>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="107"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="113"/>
       <c r="P13" s="97"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="83"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="81"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="81"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83"/>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="112" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="82" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="82">
+      <c r="N14" s="78">
         <v>10</v>
       </c>
-      <c r="O14" s="106"/>
-      <c r="P14" s="94" t="s">
+      <c r="O14" s="112"/>
+      <c r="P14" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="82" t="s">
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="T14" s="82" t="s">
+      <c r="T14" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="78">
+      <c r="U14" s="80">
         <v>13</v>
       </c>
-      <c r="V14" s="79"/>
-      <c r="W14" s="72" t="s">
+      <c r="V14" s="81"/>
+      <c r="W14" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="79"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="81"/>
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="107"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="113"/>
       <c r="P15" s="97"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="83"/>
-      <c r="T15" s="83"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="81"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="83"/>
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="112" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="82" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="82">
+      <c r="N16" s="78">
         <v>3</v>
       </c>
-      <c r="O16" s="91"/>
-      <c r="P16" s="94" t="s">
+      <c r="O16" s="94"/>
+      <c r="P16" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="82" t="s">
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="82" t="s">
+      <c r="T16" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="78">
+      <c r="U16" s="80">
         <v>1</v>
       </c>
-      <c r="V16" s="79"/>
-      <c r="W16" s="72" t="s">
+      <c r="V16" s="81"/>
+      <c r="W16" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="74"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="79"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="92"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="95"/>
       <c r="P17" s="97"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="81"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="114" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="82" t="s">
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="82">
+      <c r="N18" s="78">
         <v>4</v>
       </c>
-      <c r="O18" s="91"/>
-      <c r="P18" s="94" t="s">
+      <c r="O18" s="94"/>
+      <c r="P18" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="82" t="s">
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="82" t="s">
+      <c r="T18" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="78">
+      <c r="U18" s="80">
         <v>1</v>
       </c>
-      <c r="V18" s="79"/>
-      <c r="W18" s="72" t="s">
+      <c r="V18" s="81"/>
+      <c r="W18" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="79"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="81"/>
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="92"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="95"/>
       <c r="P19" s="97"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="75"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="81"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="112" t="s">
+      <c r="E20" s="84"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="82" t="s">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="82">
+      <c r="N20" s="78">
         <v>25</v>
       </c>
-      <c r="O20" s="108"/>
-      <c r="P20" s="94" t="s">
+      <c r="O20" s="99"/>
+      <c r="P20" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="82" t="s">
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="82" t="s">
+      <c r="T20" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="U20" s="78" t="s">
+      <c r="U20" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="79"/>
-      <c r="W20" s="72" t="s">
+      <c r="V20" s="81"/>
+      <c r="W20" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="79"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="81"/>
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="109"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="100"/>
       <c r="P21" s="97"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="83"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="81"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="112" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="82" t="s">
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="82">
+      <c r="N22" s="78">
         <v>25</v>
       </c>
-      <c r="O22" s="108"/>
-      <c r="P22" s="94" t="s">
+      <c r="O22" s="99"/>
+      <c r="P22" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="82" t="s">
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="82" t="s">
+      <c r="T22" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="78">
+      <c r="U22" s="80">
         <v>8</v>
       </c>
-      <c r="V22" s="79"/>
-      <c r="W22" s="72" t="s">
+      <c r="V22" s="81"/>
+      <c r="W22" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="79"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="81"/>
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="109"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="97"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="75"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="81"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="83"/>
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="112" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="82" t="s">
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="82">
+      <c r="N24" s="78">
         <v>20</v>
       </c>
       <c r="O24" s="110"/>
-      <c r="P24" s="94" t="s">
+      <c r="P24" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="82" t="s">
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T24" s="82" t="s">
+      <c r="T24" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="78">
+      <c r="U24" s="80">
         <v>34</v>
       </c>
-      <c r="V24" s="79"/>
-      <c r="W24" s="72" t="s">
+      <c r="V24" s="81"/>
+      <c r="W24" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="79"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="81"/>
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
       <c r="O25" s="111"/>
       <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="81"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="112" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="82" t="s">
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="82">
+      <c r="N26" s="78">
         <v>5</v>
       </c>
-      <c r="O26" s="91"/>
-      <c r="P26" s="94" t="s">
+      <c r="O26" s="94"/>
+      <c r="P26" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="82" t="s">
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="82" t="s">
+      <c r="T26" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="78">
+      <c r="U26" s="80">
         <v>1</v>
       </c>
-      <c r="V26" s="79"/>
-      <c r="W26" s="72" t="s">
+      <c r="V26" s="81"/>
+      <c r="W26" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="79"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="81"/>
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="92"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="95"/>
       <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="81"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="83"/>
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="112" t="s">
+      <c r="E28" s="84"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="82" t="s">
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="82">
+      <c r="N28" s="78">
         <v>5</v>
       </c>
-      <c r="O28" s="91"/>
-      <c r="P28" s="94" t="s">
+      <c r="O28" s="94"/>
+      <c r="P28" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="82" t="s">
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="82" t="s">
+      <c r="T28" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="80">
         <v>1</v>
       </c>
-      <c r="V28" s="79"/>
-      <c r="W28" s="72" t="s">
+      <c r="V28" s="81"/>
+      <c r="W28" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="74"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="79"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="81"/>
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="92"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="95"/>
       <c r="P29" s="97"/>
-      <c r="Q29" s="98"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="81"/>
-      <c r="W29" s="75"/>
-      <c r="X29" s="76"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="80"/>
-      <c r="AB29" s="81"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="83"/>
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="112" t="s">
+      <c r="E30" s="84"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="82" t="s">
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="82">
+      <c r="N30" s="78">
         <v>5</v>
       </c>
-      <c r="O30" s="91"/>
-      <c r="P30" s="94" t="s">
+      <c r="O30" s="94"/>
+      <c r="P30" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="82" t="s">
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="82" t="s">
+      <c r="T30" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="80">
         <v>1</v>
       </c>
-      <c r="V30" s="79"/>
-      <c r="W30" s="72" t="s">
+      <c r="V30" s="81"/>
+      <c r="W30" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="79"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="81"/>
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="92"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="95"/>
       <c r="P31" s="97"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="76"/>
-      <c r="Y31" s="76"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="81"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="83"/>
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="87"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="112" t="s">
+      <c r="E32" s="84"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="82" t="s">
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="82">
+      <c r="N32" s="78">
         <v>3</v>
       </c>
-      <c r="O32" s="91"/>
-      <c r="P32" s="94" t="s">
+      <c r="O32" s="94"/>
+      <c r="P32" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="82" t="s">
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="82" t="s">
+      <c r="T32" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="78">
+      <c r="U32" s="80">
         <v>1</v>
       </c>
-      <c r="V32" s="79"/>
-      <c r="W32" s="72" t="s">
+      <c r="V32" s="81"/>
+      <c r="W32" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="79"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="81"/>
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="92"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="95"/>
       <c r="P33" s="97"/>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="75"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="81"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="87"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="112" t="s">
+      <c r="E34" s="84"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="82" t="s">
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="82">
+      <c r="N34" s="78">
         <v>3</v>
       </c>
-      <c r="O34" s="91"/>
-      <c r="P34" s="94" t="s">
+      <c r="O34" s="94"/>
+      <c r="P34" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="82" t="s">
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T34" s="82" t="s">
+      <c r="T34" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U34" s="78">
+      <c r="U34" s="80">
         <v>1</v>
       </c>
-      <c r="V34" s="79"/>
-      <c r="W34" s="72" t="s">
+      <c r="V34" s="81"/>
+      <c r="W34" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="74"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="79"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="81"/>
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="92"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="95"/>
       <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="81"/>
-      <c r="W35" s="75"/>
-      <c r="X35" s="76"/>
-      <c r="Y35" s="76"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="80"/>
-      <c r="AB35" s="81"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="83"/>
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="112" t="s">
+      <c r="E36" s="84"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="82" t="s">
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="82">
+      <c r="N36" s="78">
         <v>6</v>
       </c>
-      <c r="O36" s="106"/>
-      <c r="P36" s="94" t="s">
+      <c r="O36" s="112"/>
+      <c r="P36" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="82" t="s">
+      <c r="Q36" s="89"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T36" s="82" t="s">
+      <c r="T36" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="80">
         <v>2</v>
       </c>
-      <c r="V36" s="79"/>
-      <c r="W36" s="72" t="s">
+      <c r="V36" s="81"/>
+      <c r="W36" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="79"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="107"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="113"/>
       <c r="P37" s="97"/>
-      <c r="Q37" s="98"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="76"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="80"/>
-      <c r="AB37" s="81"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="124"/>
+      <c r="Y37" s="124"/>
+      <c r="Z37" s="125"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="83"/>
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="112" t="s">
+      <c r="E38" s="84"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="82" t="s">
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="82">
+      <c r="N38" s="78">
         <v>6</v>
       </c>
-      <c r="O38" s="106"/>
-      <c r="P38" s="94" t="s">
+      <c r="O38" s="112"/>
+      <c r="P38" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="82" t="s">
+      <c r="Q38" s="89"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T38" s="82" t="s">
+      <c r="T38" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U38" s="78">
+      <c r="U38" s="80">
         <v>2</v>
       </c>
-      <c r="V38" s="79"/>
-      <c r="W38" s="72" t="s">
+      <c r="V38" s="81"/>
+      <c r="W38" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="74"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="79"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="81"/>
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="107"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="113"/>
       <c r="P39" s="97"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="75"/>
-      <c r="X39" s="76"/>
-      <c r="Y39" s="76"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="80"/>
-      <c r="AB39" s="81"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="83"/>
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="112" t="s">
+      <c r="E40" s="84"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="82" t="s">
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="82">
+      <c r="N40" s="78">
         <v>6</v>
       </c>
-      <c r="O40" s="106"/>
-      <c r="P40" s="94" t="s">
+      <c r="O40" s="112"/>
+      <c r="P40" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q40" s="95"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="82" t="s">
+      <c r="Q40" s="89"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T40" s="82" t="s">
+      <c r="T40" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U40" s="78">
+      <c r="U40" s="80">
         <v>2</v>
       </c>
-      <c r="V40" s="79"/>
-      <c r="W40" s="72" t="s">
+      <c r="V40" s="81"/>
+      <c r="W40" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="79"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="Z40" s="122"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="81"/>
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="99"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="107"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="113"/>
       <c r="P41" s="97"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="80"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="80"/>
-      <c r="AB41" s="81"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="124"/>
+      <c r="Y41" s="124"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="83"/>
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="112" t="s">
+      <c r="E42" s="84"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="82" t="s">
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="82">
+      <c r="N42" s="78">
         <v>2</v>
       </c>
-      <c r="O42" s="91"/>
-      <c r="P42" s="94" t="s">
+      <c r="O42" s="94"/>
+      <c r="P42" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q42" s="95"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="82" t="s">
+      <c r="Q42" s="89"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="T42" s="82" t="s">
+      <c r="T42" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U42" s="78">
+      <c r="U42" s="80">
         <v>1</v>
       </c>
-      <c r="V42" s="79"/>
-      <c r="W42" s="72" t="s">
+      <c r="V42" s="81"/>
+      <c r="W42" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="79"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="81"/>
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="92"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="95"/>
       <c r="P43" s="97"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="83"/>
-      <c r="T43" s="83"/>
-      <c r="U43" s="80"/>
-      <c r="V43" s="81"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="76"/>
-      <c r="Y43" s="76"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="81"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="83"/>
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="112" t="s">
+      <c r="E44" s="84"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="82" t="s">
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="82">
+      <c r="N44" s="78">
         <v>4</v>
       </c>
-      <c r="O44" s="91"/>
-      <c r="P44" s="94" t="s">
+      <c r="O44" s="94"/>
+      <c r="P44" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="82" t="s">
+      <c r="Q44" s="89"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="T44" s="82" t="s">
+      <c r="T44" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="U44" s="78">
+      <c r="U44" s="80">
         <v>1</v>
       </c>
-      <c r="V44" s="79"/>
-      <c r="W44" s="72" t="s">
+      <c r="V44" s="81"/>
+      <c r="W44" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="79"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="Z44" s="122"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="81"/>
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="92"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="95"/>
       <c r="P45" s="97"/>
-      <c r="Q45" s="98"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="83"/>
-      <c r="T45" s="83"/>
-      <c r="U45" s="80"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="80"/>
-      <c r="AB45" s="81"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="123"/>
+      <c r="X45" s="124"/>
+      <c r="Y45" s="124"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="83"/>
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="112" t="s">
+      <c r="E46" s="84"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="82" t="s">
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="82">
+      <c r="N46" s="78">
         <v>4</v>
       </c>
-      <c r="O46" s="91"/>
-      <c r="P46" s="94" t="s">
+      <c r="O46" s="94"/>
+      <c r="P46" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="82" t="s">
+      <c r="Q46" s="89"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T46" s="82" t="s">
+      <c r="T46" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="U46" s="78">
+      <c r="U46" s="80">
         <v>1</v>
       </c>
-      <c r="V46" s="79"/>
-      <c r="W46" s="72" t="s">
+      <c r="V46" s="81"/>
+      <c r="W46" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="78"/>
-      <c r="AB46" s="79"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="122"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="81"/>
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="92"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="95"/>
       <c r="P47" s="97"/>
-      <c r="Q47" s="98"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="83"/>
-      <c r="U47" s="80"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="77"/>
-      <c r="AA47" s="80"/>
-      <c r="AB47" s="81"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="123"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="83"/>
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -11880,19 +11925,216 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="247">
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="G28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="W46:Z47"/>
+    <mergeCell ref="W22:Z23"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z9"/>
+    <mergeCell ref="W10:Z11"/>
+    <mergeCell ref="W14:Z15"/>
+    <mergeCell ref="W16:Z17"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="W20:Z21"/>
+    <mergeCell ref="W24:Z25"/>
+    <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="W28:Z29"/>
+    <mergeCell ref="W30:Z31"/>
+    <mergeCell ref="W32:Z33"/>
+    <mergeCell ref="W34:Z35"/>
+    <mergeCell ref="W36:Z37"/>
+    <mergeCell ref="W38:Z39"/>
+    <mergeCell ref="W40:Z41"/>
+    <mergeCell ref="W42:Z43"/>
+    <mergeCell ref="W44:Z45"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA46:AB47"/>
+    <mergeCell ref="AA36:AB37"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="AA40:AB41"/>
+    <mergeCell ref="AA42:AB43"/>
+    <mergeCell ref="AA44:AB45"/>
+    <mergeCell ref="AA32:AB33"/>
+    <mergeCell ref="AA34:AB35"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:F37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AA8:AB9"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="AA12:AB13"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="P18:R19"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="U30:V31"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="P32:R33"/>
+    <mergeCell ref="P34:R35"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="G40:L41"/>
+    <mergeCell ref="G10:L11"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G16:L17"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="G22:L23"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="G26:L27"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="G32:L33"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="G36:L37"/>
+    <mergeCell ref="G38:L39"/>
     <mergeCell ref="G42:L43"/>
     <mergeCell ref="G44:L45"/>
     <mergeCell ref="G46:L47"/>
@@ -11917,216 +12159,19 @@
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="P26:R27"/>
     <mergeCell ref="P30:R31"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="G40:L41"/>
-    <mergeCell ref="G10:L11"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G16:L17"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="G22:L23"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="G26:L27"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="G32:L33"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="G36:L37"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="P32:R33"/>
-    <mergeCell ref="P34:R35"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="P38:R39"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P8:R9"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="P12:R13"/>
-    <mergeCell ref="P14:R15"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="U46:V47"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="U30:V31"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="U40:V41"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="U44:V45"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P18:R19"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="AA8:AB9"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="AA12:AB13"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="D46:F47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="W44:Z45"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA46:AB47"/>
-    <mergeCell ref="AA36:AB37"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="AA40:AB41"/>
-    <mergeCell ref="AA42:AB43"/>
-    <mergeCell ref="AA44:AB45"/>
-    <mergeCell ref="AA32:AB33"/>
-    <mergeCell ref="AA34:AB35"/>
-    <mergeCell ref="AA30:AB31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:F37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="W46:Z47"/>
-    <mergeCell ref="W22:Z23"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="W8:Z9"/>
-    <mergeCell ref="W10:Z11"/>
-    <mergeCell ref="W14:Z15"/>
-    <mergeCell ref="W16:Z17"/>
-    <mergeCell ref="W18:Z19"/>
-    <mergeCell ref="W20:Z21"/>
-    <mergeCell ref="W24:Z25"/>
-    <mergeCell ref="W26:Z27"/>
-    <mergeCell ref="W28:Z29"/>
-    <mergeCell ref="W30:Z31"/>
-    <mergeCell ref="W32:Z33"/>
-    <mergeCell ref="W34:Z35"/>
-    <mergeCell ref="W36:Z37"/>
-    <mergeCell ref="W38:Z39"/>
-    <mergeCell ref="W40:Z41"/>
-    <mergeCell ref="W42:Z43"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="G28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N22:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12135,1071 +12180,1187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:T51"/>
+  <dimension ref="D2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="133" t="s">
+    <row r="2" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="174"/>
+      <c r="F3" s="184" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="126"/>
-    </row>
-    <row r="4" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="138" t="s">
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="186"/>
+    </row>
+    <row r="4" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="173"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="187" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="138" t="s">
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="Q4" s="138" t="s">
+      <c r="Q4" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="R4" s="138" t="s">
+      <c r="R4" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="S4" s="138" t="s">
+      <c r="S4" s="29" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="122" t="s">
+      <c r="T4" s="190" t="s">
+        <v>152</v>
+      </c>
+      <c r="U4" s="191"/>
+      <c r="V4" s="192"/>
+    </row>
+    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="120">
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="175">
         <v>8</v>
       </c>
-      <c r="Q5" s="120">
+      <c r="Q5" s="175">
         <v>2</v>
       </c>
-      <c r="R5" s="135">
+      <c r="R5" s="177">
         <v>43214</v>
       </c>
-      <c r="S5" s="136">
+      <c r="S5" s="172">
         <v>43215</v>
       </c>
-    </row>
-    <row r="6" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="123"/>
-    </row>
-    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="122" t="s">
+      <c r="T5" s="175" t="s">
+        <v>217</v>
+      </c>
+      <c r="U5" s="199"/>
+      <c r="V5" s="200"/>
+    </row>
+    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="173"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="203"/>
+    </row>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D7" s="173"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="178" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="120">
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="175">
         <v>5</v>
       </c>
-      <c r="Q7" s="120">
+      <c r="Q7" s="175">
         <v>1</v>
       </c>
-      <c r="R7" s="135">
+      <c r="R7" s="177">
         <v>43216</v>
       </c>
-      <c r="S7" s="136">
+      <c r="S7" s="172">
         <v>43216</v>
       </c>
-    </row>
-    <row r="8" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="123"/>
-    </row>
-    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="122" t="s">
+      <c r="T7" s="193"/>
+      <c r="U7" s="194"/>
+      <c r="V7" s="195"/>
+    </row>
+    <row r="8" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="173"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="198"/>
+    </row>
+    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="127" t="s">
+      <c r="G9" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="120">
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="175">
         <v>13</v>
       </c>
-      <c r="Q9" s="120">
+      <c r="Q9" s="175">
         <v>3</v>
       </c>
-      <c r="R9" s="135">
+      <c r="R9" s="177">
         <v>43217</v>
       </c>
-      <c r="S9" s="136">
+      <c r="S9" s="172">
         <v>43223</v>
       </c>
-    </row>
-    <row r="10" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="123"/>
-    </row>
-    <row r="11" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="122" t="s">
+      <c r="T9" s="193"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="195"/>
+    </row>
+    <row r="10" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="196"/>
+      <c r="U10" s="197"/>
+      <c r="V10" s="198"/>
+    </row>
+    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="122">
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="170">
         <v>1</v>
       </c>
-      <c r="Q11" s="122">
+      <c r="Q11" s="170">
         <v>1</v>
       </c>
-      <c r="R11" s="136">
+      <c r="R11" s="172">
         <v>43224</v>
       </c>
-      <c r="S11" s="136">
+      <c r="S11" s="172">
         <v>43224</v>
       </c>
-    </row>
-    <row r="12" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-    </row>
-    <row r="16" spans="4:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="195"/>
+    </row>
+    <row r="12" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="182"/>
+      <c r="K12" s="182"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="182"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="171"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="171"/>
+      <c r="T12" s="196"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="198"/>
+    </row>
+    <row r="16" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="143" t="s">
+      <c r="E17" s="169"/>
+      <c r="F17" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="144" t="s">
+      <c r="G17" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="H17" s="145"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="143" t="s">
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="K17" s="144" t="s">
+      <c r="K17" s="165" t="s">
         <v>175</v>
       </c>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="144" t="s">
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="165" t="s">
         <v>176</v>
       </c>
-      <c r="P17" s="145"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="145" t="s">
+      <c r="P17" s="166"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="S17" s="145"/>
-      <c r="T17" s="146"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="167"/>
     </row>
     <row r="18" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="137"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="166" t="s">
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="167"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="166">
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="144">
         <v>0</v>
       </c>
-      <c r="K18" s="167" t="s">
+      <c r="K18" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="170" t="s">
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="P18" s="171"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="170" t="s">
+      <c r="P18" s="157"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="S18" s="171"/>
-      <c r="T18" s="172"/>
+      <c r="S18" s="157"/>
+      <c r="T18" s="158"/>
     </row>
     <row r="19" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="137"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="183"/>
-      <c r="R19" s="181"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="183"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="161"/>
     </row>
     <row r="20" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="137"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="166">
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="144">
         <v>1</v>
       </c>
-      <c r="K20" s="167" t="s">
+      <c r="K20" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="170" t="s">
+      <c r="L20" s="148"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="156" t="s">
         <v>180</v>
       </c>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="170" t="s">
+      <c r="P20" s="157"/>
+      <c r="Q20" s="158"/>
+      <c r="R20" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="S20" s="171"/>
-      <c r="T20" s="172"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="158"/>
     </row>
     <row r="21" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="137"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="183"/>
-      <c r="R21" s="181"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="183"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="161"/>
     </row>
     <row r="22" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="137"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="166">
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="144">
         <v>2</v>
       </c>
-      <c r="K22" s="167" t="s">
+      <c r="K22" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="170" t="s">
+      <c r="L22" s="148"/>
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="P22" s="171"/>
-      <c r="Q22" s="172"/>
-      <c r="R22" s="170" t="s">
+      <c r="P22" s="157"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="156" t="s">
         <v>184</v>
       </c>
-      <c r="S22" s="171"/>
-      <c r="T22" s="172"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="158"/>
     </row>
     <row r="23" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="137"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="182"/>
-      <c r="Q23" s="183"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="183"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="161"/>
     </row>
     <row r="24" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="137"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="166">
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="144">
         <v>3</v>
       </c>
-      <c r="K24" s="167" t="s">
+      <c r="K24" s="147" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="167" t="s">
+      <c r="L24" s="148"/>
+      <c r="M24" s="148"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="P24" s="168"/>
-      <c r="Q24" s="169"/>
-      <c r="R24" s="167" t="s">
+      <c r="P24" s="148"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="168"/>
-      <c r="T24" s="169"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="149"/>
     </row>
     <row r="25" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="137"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="180"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="180"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="155"/>
     </row>
     <row r="26" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="137"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="166">
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="144">
         <v>4</v>
       </c>
-      <c r="K26" s="167" t="s">
+      <c r="K26" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="167" t="s">
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="167" t="s">
+      <c r="P26" s="148"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="168"/>
-      <c r="T26" s="169"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="149"/>
     </row>
     <row r="27" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="137"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="179"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="179"/>
-      <c r="T27" s="180"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="155"/>
     </row>
     <row r="28" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="137"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="166">
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="144">
         <v>5</v>
       </c>
-      <c r="K28" s="167" t="s">
+      <c r="K28" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="167" t="s">
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="P28" s="168"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="167" t="s">
+      <c r="P28" s="148"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="S28" s="168"/>
-      <c r="T28" s="169"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="149"/>
     </row>
     <row r="29" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="137"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="179"/>
-      <c r="T29" s="180"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="155"/>
     </row>
     <row r="30" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="137"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="151" t="s">
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158">
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="139">
         <v>0</v>
       </c>
-      <c r="K30" s="152" t="s">
+      <c r="K30" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="155" t="s">
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="P30" s="156"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="155" t="s">
+      <c r="P30" s="127"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="S30" s="156"/>
-      <c r="T30" s="157"/>
+      <c r="S30" s="127"/>
+      <c r="T30" s="128"/>
     </row>
     <row r="31" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="137"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="185"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="165"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="164"/>
-      <c r="T31" s="165"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="131"/>
+      <c r="R31" s="129"/>
+      <c r="S31" s="130"/>
+      <c r="T31" s="131"/>
     </row>
     <row r="32" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="137"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="151">
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="138">
         <v>1</v>
       </c>
-      <c r="K32" s="152" t="s">
+      <c r="K32" s="132" t="s">
         <v>205</v>
       </c>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="155" t="s">
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="126" t="s">
         <v>203</v>
       </c>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="152" t="s">
+      <c r="P32" s="127"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="S32" s="153"/>
-      <c r="T32" s="154"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="134"/>
     </row>
     <row r="33" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="137"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="185"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
-      <c r="Q33" s="165"/>
-      <c r="R33" s="160"/>
-      <c r="S33" s="161"/>
-      <c r="T33" s="162"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="131"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="136"/>
+      <c r="T33" s="137"/>
     </row>
     <row r="34" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="137"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="188">
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="163">
         <v>2</v>
       </c>
-      <c r="K34" s="152" t="s">
+      <c r="K34" s="132" t="s">
         <v>201</v>
       </c>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="154"/>
-      <c r="O34" s="152" t="s">
+      <c r="L34" s="133"/>
+      <c r="M34" s="133"/>
+      <c r="N34" s="134"/>
+      <c r="O34" s="132" t="s">
         <v>202</v>
       </c>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="154"/>
-      <c r="R34" s="152" t="s">
+      <c r="P34" s="133"/>
+      <c r="Q34" s="134"/>
+      <c r="R34" s="132" t="s">
         <v>204</v>
       </c>
-      <c r="S34" s="153"/>
-      <c r="T34" s="154"/>
+      <c r="S34" s="133"/>
+      <c r="T34" s="134"/>
     </row>
     <row r="35" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="137"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="189"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="161"/>
-      <c r="M35" s="161"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="160"/>
-      <c r="S35" s="161"/>
-      <c r="T35" s="162"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="136"/>
+      <c r="Q35" s="137"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="136"/>
+      <c r="T35" s="137"/>
     </row>
     <row r="36" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="137"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="188">
+      <c r="D36" s="168"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="163">
         <v>3</v>
       </c>
-      <c r="K36" s="152" t="s">
+      <c r="K36" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="152" t="s">
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="134"/>
+      <c r="O36" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="154"/>
-      <c r="R36" s="152" t="s">
+      <c r="P36" s="133"/>
+      <c r="Q36" s="134"/>
+      <c r="R36" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="S36" s="153"/>
-      <c r="T36" s="154"/>
+      <c r="S36" s="133"/>
+      <c r="T36" s="134"/>
     </row>
     <row r="37" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="137"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="160"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="160"/>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="162"/>
-      <c r="R37" s="160"/>
-      <c r="S37" s="161"/>
-      <c r="T37" s="162"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="137"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="137"/>
+      <c r="R37" s="135"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="137"/>
     </row>
     <row r="38" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="137"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="188">
+      <c r="D38" s="168"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="163">
         <v>4</v>
       </c>
-      <c r="K38" s="152" t="s">
+      <c r="K38" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
-      <c r="N38" s="154"/>
-      <c r="O38" s="152" t="s">
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="134"/>
+      <c r="O38" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="154"/>
-      <c r="R38" s="152" t="s">
+      <c r="P38" s="133"/>
+      <c r="Q38" s="134"/>
+      <c r="R38" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="S38" s="153"/>
-      <c r="T38" s="154"/>
+      <c r="S38" s="133"/>
+      <c r="T38" s="134"/>
     </row>
     <row r="39" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="137"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165"/>
-      <c r="J39" s="189"/>
-      <c r="K39" s="160"/>
-      <c r="L39" s="161"/>
-      <c r="M39" s="161"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="160"/>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="160"/>
-      <c r="S39" s="161"/>
-      <c r="T39" s="162"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="129"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="164"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="136"/>
+      <c r="T39" s="137"/>
     </row>
     <row r="40" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="137"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="166" t="s">
+      <c r="D40" s="168"/>
+      <c r="E40" s="169"/>
+      <c r="F40" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="167"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="166">
+      <c r="G40" s="147"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="144">
         <v>0</v>
       </c>
-      <c r="K40" s="167" t="s">
+      <c r="K40" s="147" t="s">
         <v>207</v>
       </c>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="169"/>
-      <c r="O40" s="170" t="s">
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
+      <c r="N40" s="149"/>
+      <c r="O40" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="P40" s="171"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="170" t="s">
+      <c r="P40" s="157"/>
+      <c r="Q40" s="158"/>
+      <c r="R40" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="S40" s="171"/>
-      <c r="T40" s="172"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="158"/>
     </row>
     <row r="41" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="137"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="182"/>
-      <c r="T41" s="183"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="169"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="146"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="155"/>
+      <c r="O41" s="159"/>
+      <c r="P41" s="160"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="159"/>
+      <c r="S41" s="160"/>
+      <c r="T41" s="161"/>
     </row>
     <row r="42" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="137"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="166">
+      <c r="D42" s="168"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="144">
         <v>1</v>
       </c>
-      <c r="K42" s="167" t="s">
+      <c r="K42" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="167" t="s">
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="147" t="s">
         <v>209</v>
       </c>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="167" t="s">
+      <c r="P42" s="148"/>
+      <c r="Q42" s="148"/>
+      <c r="R42" s="147" t="s">
         <v>213</v>
       </c>
-      <c r="S42" s="168"/>
-      <c r="T42" s="169"/>
+      <c r="S42" s="148"/>
+      <c r="T42" s="149"/>
     </row>
     <row r="43" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="137"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="179"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="174"/>
-      <c r="P43" s="184"/>
-      <c r="Q43" s="184"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="179"/>
-      <c r="T43" s="180"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
+      <c r="N43" s="155"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162"/>
+      <c r="R43" s="153"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="155"/>
     </row>
     <row r="44" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="137"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="166">
+      <c r="D44" s="168"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="144">
         <v>2</v>
       </c>
-      <c r="K44" s="167" t="s">
+      <c r="K44" s="147" t="s">
         <v>210</v>
       </c>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="169"/>
-      <c r="O44" s="167" t="s">
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
+      <c r="N44" s="149"/>
+      <c r="O44" s="147" t="s">
         <v>211</v>
       </c>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="169"/>
-      <c r="R44" s="167" t="s">
+      <c r="P44" s="148"/>
+      <c r="Q44" s="149"/>
+      <c r="R44" s="147" t="s">
         <v>214</v>
       </c>
-      <c r="S44" s="168"/>
-      <c r="T44" s="169"/>
+      <c r="S44" s="148"/>
+      <c r="T44" s="149"/>
     </row>
     <row r="45" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="137"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="177"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="178"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="179"/>
-      <c r="N45" s="180"/>
-      <c r="O45" s="178"/>
-      <c r="P45" s="179"/>
-      <c r="Q45" s="180"/>
-      <c r="R45" s="178"/>
-      <c r="S45" s="179"/>
-      <c r="T45" s="180"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="155"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="155"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="154"/>
+      <c r="T45" s="155"/>
     </row>
     <row r="46" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="137"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="151" t="s">
+      <c r="D46" s="168"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="155"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="151">
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="138">
         <v>0</v>
       </c>
-      <c r="K46" s="152" t="s">
+      <c r="K46" s="132" t="s">
         <v>207</v>
       </c>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="155" t="s">
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="157"/>
-      <c r="R46" s="155" t="s">
+      <c r="P46" s="127"/>
+      <c r="Q46" s="128"/>
+      <c r="R46" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="S46" s="156"/>
-      <c r="T46" s="157"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="128"/>
     </row>
     <row r="47" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="137"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="158"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="187"/>
-      <c r="J47" s="159"/>
-      <c r="K47" s="160"/>
-      <c r="L47" s="161"/>
-      <c r="M47" s="161"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="163"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="165"/>
-      <c r="R47" s="163"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="165"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="129"/>
+      <c r="P47" s="130"/>
+      <c r="Q47" s="131"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="130"/>
+      <c r="T47" s="131"/>
     </row>
     <row r="48" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="137"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="158"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="151">
+      <c r="D48" s="168"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="143"/>
+      <c r="J48" s="138">
         <v>1</v>
       </c>
-      <c r="K48" s="152" t="s">
+      <c r="K48" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
-      <c r="N48" s="154"/>
-      <c r="O48" s="152" t="s">
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="154"/>
-      <c r="R48" s="152" t="s">
+      <c r="P48" s="133"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="132" t="s">
         <v>216</v>
       </c>
-      <c r="S48" s="153"/>
-      <c r="T48" s="154"/>
+      <c r="S48" s="133"/>
+      <c r="T48" s="134"/>
     </row>
     <row r="49" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="137"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="165"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="161"/>
-      <c r="M49" s="161"/>
-      <c r="N49" s="162"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="162"/>
-      <c r="R49" s="160"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="162"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="131"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="137"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="136"/>
+      <c r="T49" s="137"/>
     </row>
     <row r="50" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="147"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
-      <c r="M50" s="142"/>
-      <c r="N50" s="142"/>
-      <c r="O50" s="142"/>
-      <c r="P50" s="142"/>
-      <c r="Q50" s="142"/>
-      <c r="R50" s="142"/>
-      <c r="S50" s="142"/>
-      <c r="T50" s="142"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
     </row>
     <row r="51" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="147"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="142"/>
-      <c r="T51" s="142"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="109">
+    <mergeCell ref="T11:V12"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="D3:E12"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="G9:O10"/>
+    <mergeCell ref="G11:O12"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="G5:O6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G7:O8"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="R20:T21"/>
+    <mergeCell ref="R22:T23"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="O24:Q25"/>
+    <mergeCell ref="R24:T25"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="R26:T27"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="F18:F29"/>
+    <mergeCell ref="F30:F39"/>
+    <mergeCell ref="G30:I39"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="K22:N23"/>
+    <mergeCell ref="D17:E49"/>
+    <mergeCell ref="O20:Q21"/>
+    <mergeCell ref="O22:Q23"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:N25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K26:N27"/>
+    <mergeCell ref="K28:N29"/>
+    <mergeCell ref="G18:I29"/>
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="K38:N39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:N35"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:N37"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="R36:T37"/>
     <mergeCell ref="R46:T47"/>
     <mergeCell ref="R48:T49"/>
     <mergeCell ref="F46:F49"/>
@@ -13224,86 +13385,6 @@
     <mergeCell ref="K40:N41"/>
     <mergeCell ref="K42:N43"/>
     <mergeCell ref="K44:N45"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="K38:N39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:N35"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:N37"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:N25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="K28:N29"/>
-    <mergeCell ref="G18:I29"/>
-    <mergeCell ref="F18:F29"/>
-    <mergeCell ref="F30:F39"/>
-    <mergeCell ref="G30:I39"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="K22:N23"/>
-    <mergeCell ref="D17:E49"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="D3:E12"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="G9:O10"/>
-    <mergeCell ref="G11:O12"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="G5:O6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G7:O8"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backlog/NetProbe_Scrum.xlsx
+++ b/Backlog/NetProbe_Scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="132" windowWidth="22116" windowHeight="9468" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="192" windowWidth="22116" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Support" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -543,72 +543,9 @@
     <t>Tests                                                                 &amp;                                                    Validation</t>
   </si>
   <si>
-    <t>US ID</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Expected Outputs</t>
-  </si>
-  <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial State : U-test Data Exchange Running, NetProbe Compiled and Launched </t>
   </si>
   <si>
-    <t>Click on Connect Button</t>
-  </si>
-  <si>
-    <t>Connect NetProbe to the Network and Read Data</t>
-  </si>
-  <si>
-    <t>Display of Brut Frames being exchanged</t>
-  </si>
-  <si>
-    <t>Change Variables' value on U-Test</t>
-  </si>
-  <si>
-    <t>Notice Frames' value change on NetProbe</t>
-  </si>
-  <si>
-    <t>Scénario</t>
-  </si>
-  <si>
-    <t>Observation of Variable's value Change</t>
-  </si>
-  <si>
-    <t>Click on the "X" Button at the upper right corner</t>
-  </si>
-  <si>
-    <t>Close NetProbe 1/3</t>
-  </si>
-  <si>
-    <t>Close NetProbe 2/3</t>
-  </si>
-  <si>
-    <t>Pop UP Window Appears, asking Are you sure you want to close (Yes/No)</t>
-  </si>
-  <si>
-    <t>Click On "No" button</t>
-  </si>
-  <si>
-    <t>Close NetProbe 3/3</t>
-  </si>
-  <si>
-    <t>Return To Data Display View on NetProbe</t>
-  </si>
-  <si>
-    <t>Click On "X" then "Yes" Buttons</t>
-  </si>
-  <si>
-    <t>Close NetProbe Execution Window</t>
-  </si>
-  <si>
     <t>Pop Up Window Appearance, Asking to  Name Project &amp; import of the project file</t>
   </si>
   <si>
@@ -673,6 +610,18 @@
   </si>
   <si>
     <t>finished the 26/04/2018</t>
+  </si>
+  <si>
+    <t>Open *Project dans Sprint 1</t>
+  </si>
+  <si>
+    <t>Import doit être splitté en plusieurs files</t>
+  </si>
+  <si>
+    <t>jonctions, groupes, RMO/ECS/…, ICD</t>
+  </si>
+  <si>
+    <t>Intégrer save as pour le renommer</t>
   </si>
 </sst>
 </file>
@@ -740,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,12 +789,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,9 +1228,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1295,6 +1235,105 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1307,24 +1346,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,91 +1364,34 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,16 +1400,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,54 +1421,75 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1520,53 +1508,140 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1604,13 +1679,25 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1622,22 +1709,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,158 +1721,29 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3926,955 +3869,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Connecteur droit 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7078980" y="3718560"/>
-          <a:ext cx="0" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Connecteur droit 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4785360" y="4191000"/>
-          <a:ext cx="2293620" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Connecteur droit 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="4206240"/>
-          <a:ext cx="7620" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>273040</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connecteur droit avec flèche 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="46" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="4631680"/>
-          <a:ext cx="227320" cy="8900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="Groupe 26"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4754880" y="3505200"/>
-          <a:ext cx="716280" cy="449580"/>
-          <a:chOff x="2232" y="1205507"/>
-          <a:chExt cx="729563" cy="332184"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Chevron 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2232" y="1205507"/>
-            <a:ext cx="729563" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="168324" y="1205507"/>
-            <a:ext cx="498276" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28004" tIns="9335" rIns="9335" bIns="9335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="311150">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Initial State</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="33" name="Groupe 32"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5265420" y="3512820"/>
-          <a:ext cx="1005840" cy="434340"/>
-          <a:chOff x="1116" y="1172914"/>
-          <a:chExt cx="993427" cy="397371"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Chevron 33"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1116" y="1172914"/>
-            <a:ext cx="993427" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="162174" y="1172914"/>
-            <a:ext cx="726227" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32004" tIns="10668" rIns="10668" bIns="10668" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>NetProbe Connection</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>716369</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="36" name="Groupe 35"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6065520" y="3505201"/>
-          <a:ext cx="990689" cy="441960"/>
-          <a:chOff x="11616" y="1124694"/>
-          <a:chExt cx="1234529" cy="493811"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="37" name="Chevron 36"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11616" y="1124694"/>
-            <a:ext cx="1234529" cy="493811"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="256538" y="1124694"/>
-            <a:ext cx="740718" cy="493811"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="44006" tIns="14669" rIns="14669" bIns="14669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1050" kern="1200"/>
-              <a:t>Noticing Variables' change</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>20300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="39" name="Groupe 38"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6149340" y="4450080"/>
-          <a:ext cx="960120" cy="424160"/>
-          <a:chOff x="0" y="2090439"/>
-          <a:chExt cx="1631900" cy="664924"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Chevron 39"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="2090439"/>
-            <a:ext cx="1631900" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="237574" y="2102603"/>
-            <a:ext cx="1099618" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60008" tIns="20003" rIns="20003" bIns="20003" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Validate Closure</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>20300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Groupe 44"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4823460" y="4450080"/>
-          <a:ext cx="861060" cy="424160"/>
-          <a:chOff x="0" y="2090439"/>
-          <a:chExt cx="1631900" cy="664924"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="Chevron 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="2090439"/>
-            <a:ext cx="1631900" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="297250" y="2102603"/>
-            <a:ext cx="1099617" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60008" tIns="20003" rIns="20003" bIns="20003" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Close</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>NetProbe</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>20300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="Groupe 47"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5486400" y="4450080"/>
-          <a:ext cx="853440" cy="424160"/>
-          <a:chOff x="0" y="2090439"/>
-          <a:chExt cx="1631900" cy="664924"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="Chevron 48"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="2090439"/>
-            <a:ext cx="1631900" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="283454" y="2102603"/>
-            <a:ext cx="1099618" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60008" tIns="20003" rIns="20003" bIns="20003" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Abort Closure</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4913,13 +3914,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4958,13 +3959,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5003,13 +4004,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>13960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>273040</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5052,13 +4053,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5068,7 +4069,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4754880" y="5600700"/>
+          <a:off x="4754880" y="5227320"/>
           <a:ext cx="716280" cy="441960"/>
           <a:chOff x="2232" y="1205507"/>
           <a:chExt cx="729563" cy="332184"/>
@@ -5177,13 +4178,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5193,7 +4194,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5265420" y="5600700"/>
+          <a:off x="5265420" y="5227320"/>
           <a:ext cx="1005840" cy="441960"/>
           <a:chOff x="1116" y="1172914"/>
           <a:chExt cx="993427" cy="397371"/>
@@ -5315,13 +4316,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>716369</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5331,7 +4332,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6065520" y="5600701"/>
+          <a:off x="6065520" y="5227321"/>
           <a:ext cx="990689" cy="434340"/>
           <a:chOff x="11616" y="1124694"/>
           <a:chExt cx="1234529" cy="493811"/>
@@ -5440,13 +4441,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>35540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5456,7 +4457,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4823460" y="6530340"/>
+          <a:off x="4823460" y="6156960"/>
           <a:ext cx="861060" cy="416540"/>
           <a:chOff x="0" y="2090439"/>
           <a:chExt cx="1631900" cy="664924"/>
@@ -5565,13 +4566,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>35540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5581,7 +4582,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5486400" y="6530340"/>
+          <a:off x="5486400" y="6156960"/>
           <a:ext cx="853440" cy="416540"/>
           <a:chOff x="0" y="2090439"/>
           <a:chExt cx="1631900" cy="664924"/>
@@ -5688,15 +4689,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5706,8 +4707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4792980" y="7597140"/>
-          <a:ext cx="716280" cy="441960"/>
+          <a:off x="23020020" y="7040880"/>
+          <a:ext cx="716280" cy="434340"/>
           <a:chOff x="2232" y="1205507"/>
           <a:chExt cx="729563" cy="332184"/>
         </a:xfrm>
@@ -5813,15 +4814,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5831,8 +4832,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5303520" y="7604760"/>
-          <a:ext cx="1005840" cy="426720"/>
+          <a:off x="23530560" y="7048500"/>
+          <a:ext cx="1005840" cy="419100"/>
           <a:chOff x="1116" y="1172914"/>
           <a:chExt cx="993427" cy="397371"/>
         </a:xfrm>
@@ -5938,15 +4939,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>754469</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5956,8 +4957,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6103620" y="7597141"/>
-          <a:ext cx="990689" cy="434340"/>
+          <a:off x="24330660" y="7040881"/>
+          <a:ext cx="990689" cy="426720"/>
           <a:chOff x="11616" y="1124694"/>
           <a:chExt cx="1234529" cy="493811"/>
         </a:xfrm>
@@ -6065,13 +5066,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6081,7 +5082,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5036820" y="8526780"/>
+          <a:off x="5036820" y="7033260"/>
           <a:ext cx="716280" cy="441960"/>
           <a:chOff x="2232" y="1205507"/>
           <a:chExt cx="729563" cy="332184"/>
@@ -6190,13 +5191,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6206,7 +5207,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5547360" y="8526780"/>
+          <a:off x="5547360" y="7033260"/>
           <a:ext cx="1005840" cy="441960"/>
           <a:chOff x="1116" y="1172914"/>
           <a:chExt cx="993427" cy="397371"/>
@@ -6610,22 +5611,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:45" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -6674,19 +5675,19 @@
     <row r="4" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="76"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="76"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -6694,10 +5695,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="76"/>
+      <c r="T4" s="41"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -6705,12 +5706,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="8"/>
-      <c r="AC4" s="49" t="s">
+      <c r="AC4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="51"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="58"/>
     </row>
     <row r="5" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -6740,13 +5741,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="8"/>
-      <c r="AL5" s="49" t="s">
+      <c r="AL5" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="51"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="58"/>
     </row>
     <row r="6" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -6757,8 +5758,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -6786,8 +5787,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -6805,30 +5806,30 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="69">
+      <c r="AB7" s="37">
         <v>5</v>
       </c>
-      <c r="AC7" s="57">
+      <c r="AC7" s="44">
         <v>5</v>
       </c>
-      <c r="AD7" s="60">
+      <c r="AD7" s="47">
         <v>10</v>
       </c>
-      <c r="AE7" s="63">
+      <c r="AE7" s="50">
         <v>15</v>
       </c>
-      <c r="AF7" s="63">
+      <c r="AF7" s="50">
         <v>20</v>
       </c>
-      <c r="AG7" s="66">
+      <c r="AG7" s="53">
         <v>25</v>
       </c>
-      <c r="AO7" s="36" t="s">
+      <c r="AO7" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="38"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="70"/>
     </row>
     <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -6839,8 +5840,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -6858,12 +5859,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="67"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="51"/>
+      <c r="AG8" s="54"/>
       <c r="AJ8" s="11" t="s">
         <v>72</v>
       </c>
@@ -6892,8 +5893,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -6911,22 +5912,22 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="68"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="55"/>
       <c r="AJ9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="AK9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AM9" s="55" t="s">
+      <c r="AM9" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AN9" s="56"/>
+      <c r="AN9" s="62"/>
       <c r="AO9" s="11" t="s">
         <v>74</v>
       </c>
@@ -6952,8 +5953,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -6971,22 +5972,22 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="69">
+      <c r="AB10" s="37">
         <v>4</v>
       </c>
-      <c r="AC10" s="57">
+      <c r="AC10" s="44">
         <v>4</v>
       </c>
-      <c r="AD10" s="60">
+      <c r="AD10" s="47">
         <v>8</v>
       </c>
-      <c r="AE10" s="60">
+      <c r="AE10" s="47">
         <v>12</v>
       </c>
-      <c r="AF10" s="63">
+      <c r="AF10" s="50">
         <v>16</v>
       </c>
-      <c r="AG10" s="63">
+      <c r="AG10" s="50">
         <v>20</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -6995,10 +5996,10 @@
       <c r="AK10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM10" s="39" t="s">
+      <c r="AM10" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="AN10" s="40"/>
+      <c r="AN10" s="64"/>
       <c r="AO10" s="13" t="s">
         <v>119</v>
       </c>
@@ -7025,8 +6026,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -7044,22 +6045,22 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="51"/>
       <c r="AJ11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AK11" s="53" t="s">
+      <c r="AK11" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="AM11" s="39" t="s">
+      <c r="AM11" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AN11" s="40"/>
+      <c r="AN11" s="64"/>
       <c r="AO11" s="13" t="s">
         <v>119</v>
       </c>
@@ -7086,8 +6087,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -7105,20 +6106,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="65"/>
-      <c r="AG12" s="65"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
       <c r="AJ12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK12" s="54"/>
-      <c r="AM12" s="43" t="s">
+      <c r="AK12" s="60"/>
+      <c r="AM12" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="AN12" s="44"/>
+      <c r="AN12" s="66"/>
       <c r="AO12" s="13" t="s">
         <v>119</v>
       </c>
@@ -7145,8 +6146,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -7164,22 +6165,22 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="69">
+      <c r="AB13" s="37">
         <v>3</v>
       </c>
-      <c r="AC13" s="57">
+      <c r="AC13" s="44">
         <v>3</v>
       </c>
-      <c r="AD13" s="60">
+      <c r="AD13" s="47">
         <v>6</v>
       </c>
-      <c r="AE13" s="60">
+      <c r="AE13" s="47">
         <v>9</v>
       </c>
-      <c r="AF13" s="60">
+      <c r="AF13" s="47">
         <v>12</v>
       </c>
-      <c r="AG13" s="63">
+      <c r="AG13" s="50">
         <v>15</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -7188,10 +6189,10 @@
       <c r="AK13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AM13" s="43" t="s">
+      <c r="AM13" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="AN13" s="44"/>
+      <c r="AN13" s="66"/>
       <c r="AO13" s="13" t="s">
         <v>120</v>
       </c>
@@ -7218,8 +6219,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -7237,22 +6238,22 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="64"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="51"/>
       <c r="AJ14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM14" s="41" t="s">
+      <c r="AM14" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="AN14" s="42"/>
+      <c r="AN14" s="72"/>
       <c r="AO14" s="13" t="s">
         <v>119</v>
       </c>
@@ -7279,8 +6280,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -7298,22 +6299,22 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="65"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="52"/>
       <c r="AJ15" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM15" s="41" t="s">
+      <c r="AM15" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="AN15" s="42"/>
+      <c r="AN15" s="72"/>
       <c r="AO15" s="13" t="s">
         <v>117</v>
       </c>
@@ -7340,8 +6341,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -7359,22 +6360,22 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="69">
+      <c r="AB16" s="37">
         <v>2</v>
       </c>
-      <c r="AC16" s="57">
+      <c r="AC16" s="44">
         <v>2</v>
       </c>
-      <c r="AD16" s="57">
+      <c r="AD16" s="44">
         <v>4</v>
       </c>
-      <c r="AE16" s="60">
+      <c r="AE16" s="47">
         <v>6</v>
       </c>
-      <c r="AF16" s="60">
+      <c r="AF16" s="47">
         <v>8</v>
       </c>
-      <c r="AG16" s="60">
+      <c r="AG16" s="47">
         <v>10</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -7383,10 +6384,10 @@
       <c r="AK16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM16" s="41" t="s">
+      <c r="AM16" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="AN16" s="42"/>
+      <c r="AN16" s="72"/>
       <c r="AO16" s="13" t="s">
         <v>117</v>
       </c>
@@ -7413,8 +6414,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -7432,22 +6433,22 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
       <c r="AJ17" s="10" t="s">
         <v>93</v>
       </c>
       <c r="AK17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AM17" s="41" t="s">
+      <c r="AM17" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="AN17" s="42"/>
+      <c r="AN17" s="72"/>
       <c r="AO17" s="13" t="s">
         <v>117</v>
       </c>
@@ -7474,8 +6475,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -7493,22 +6494,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
       <c r="AJ18" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AM18" s="41" t="s">
+      <c r="AM18" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="42"/>
+      <c r="AN18" s="72"/>
       <c r="AO18" s="13" t="s">
         <v>117</v>
       </c>
@@ -7554,22 +6555,22 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="69">
+      <c r="AB19" s="37">
         <v>1</v>
       </c>
-      <c r="AC19" s="57">
+      <c r="AC19" s="44">
         <v>1</v>
       </c>
-      <c r="AD19" s="57">
+      <c r="AD19" s="44">
         <v>2</v>
       </c>
-      <c r="AE19" s="57">
+      <c r="AE19" s="44">
         <v>3</v>
       </c>
-      <c r="AF19" s="57">
+      <c r="AF19" s="44">
         <v>4</v>
       </c>
-      <c r="AG19" s="57">
+      <c r="AG19" s="44">
         <v>5</v>
       </c>
       <c r="AJ19" s="14" t="s">
@@ -7578,10 +6579,10 @@
       <c r="AK19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM19" s="41" t="s">
+      <c r="AM19" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="AN19" s="42"/>
+      <c r="AN19" s="72"/>
       <c r="AO19" s="13" t="s">
         <v>117</v>
       </c>
@@ -7627,22 +6628,22 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
       <c r="AJ20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM20" s="39" t="s">
+      <c r="AM20" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="AN20" s="40"/>
+      <c r="AN20" s="64"/>
       <c r="AO20" s="13" t="s">
         <v>117</v>
       </c>
@@ -7688,22 +6689,22 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
       <c r="AJ21" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM21" s="41" t="s">
+      <c r="AM21" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="AN21" s="42"/>
+      <c r="AN21" s="72"/>
       <c r="AO21" s="13" t="s">
         <v>117</v>
       </c>
@@ -7749,25 +6750,25 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="8"/>
-      <c r="AC22" s="69">
+      <c r="AC22" s="37">
         <v>1</v>
       </c>
-      <c r="AD22" s="69">
+      <c r="AD22" s="37">
         <v>2</v>
       </c>
-      <c r="AE22" s="69">
+      <c r="AE22" s="37">
         <v>3</v>
       </c>
-      <c r="AF22" s="69">
+      <c r="AF22" s="37">
         <v>4</v>
       </c>
-      <c r="AG22" s="69">
+      <c r="AG22" s="37">
         <v>5</v>
       </c>
-      <c r="AM22" s="41" t="s">
+      <c r="AM22" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="AN22" s="42"/>
+      <c r="AN22" s="72"/>
       <c r="AO22" s="13" t="s">
         <v>117</v>
       </c>
@@ -7813,15 +6814,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AM23" s="43" t="s">
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="38"/>
+      <c r="AM23" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="AN23" s="44"/>
+      <c r="AN23" s="66"/>
       <c r="AO23" s="13" t="s">
         <v>118</v>
       </c>
@@ -7867,15 +6868,15 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="8"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="71"/>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AM24" s="45" t="s">
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AM24" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="AN24" s="46"/>
+      <c r="AN24" s="74"/>
       <c r="AO24" s="22" t="s">
         <v>117</v>
       </c>
@@ -7921,10 +6922,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="8"/>
-      <c r="AM25" s="47" t="s">
+      <c r="AM25" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="AN25" s="48"/>
+      <c r="AN25" s="76"/>
       <c r="AO25" s="13" t="s">
         <v>117</v>
       </c>
@@ -7970,10 +6971,10 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="8"/>
-      <c r="AM26" s="35" t="s">
+      <c r="AM26" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="AN26" s="35"/>
+      <c r="AN26" s="67"/>
       <c r="AO26" s="24"/>
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
@@ -8008,10 +7009,10 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="8"/>
-      <c r="AM27" s="72" t="s">
+      <c r="AM27" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="AN27" s="73"/>
+      <c r="AN27" s="35"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -8685,29 +7686,29 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="76"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="76"/>
+      <c r="L51" s="41"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="76" t="s">
+      <c r="S51" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="76"/>
+      <c r="T51" s="41"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -8784,8 +7785,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -9305,12 +8306,12 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="52" t="s">
+      <c r="I72" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -10008,6 +9009,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="AF16:AF18"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
     <mergeCell ref="AM27:AN27"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="AB19:AB21"/>
@@ -10024,59 +9078,6 @@
     <mergeCell ref="AB10:AB12"/>
     <mergeCell ref="AB13:AB15"/>
     <mergeCell ref="AB16:AB18"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="AK11:AK12"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="AD16:AD18"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AF16:AF18"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM19:AN19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10090,7 +9091,7 @@
   <dimension ref="B4:AC49"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F17"/>
+      <selection activeCell="G18" sqref="G18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10176,14 +9177,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="114" t="s">
+      <c r="M6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="116"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="107"/>
       <c r="S6" s="26" t="s">
         <v>2</v>
       </c>
@@ -10203,1651 +9204,1651 @@
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="117" t="s">
+      <c r="O7" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="119"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="110"/>
       <c r="S7" s="27" t="s">
         <v>45</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="101" t="s">
+      <c r="U7" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="V7" s="103"/>
-      <c r="W7" s="101" t="s">
+      <c r="V7" s="91"/>
+      <c r="W7" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="102"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="101" t="s">
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="103"/>
+      <c r="AB7" s="91"/>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="88" t="s">
+      <c r="E8" s="92"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="78" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="83">
         <v>5</v>
       </c>
-      <c r="O8" s="94"/>
-      <c r="P8" s="96" t="s">
+      <c r="O8" s="96"/>
+      <c r="P8" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="78" t="s">
+      <c r="Q8" s="100"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="80">
+      <c r="U8" s="83">
         <v>5</v>
       </c>
-      <c r="V8" s="81"/>
-      <c r="W8" s="120" t="s">
+      <c r="V8" s="84"/>
+      <c r="W8" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="81"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="84"/>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="98"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="83"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86"/>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="88" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="78" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="78">
+      <c r="N10" s="87">
         <v>4</v>
       </c>
-      <c r="O10" s="94"/>
-      <c r="P10" s="96" t="s">
+      <c r="O10" s="96"/>
+      <c r="P10" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="78" t="s">
+      <c r="Q10" s="100"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="78" t="s">
+      <c r="T10" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="80">
+      <c r="U10" s="83">
         <v>1</v>
       </c>
-      <c r="V10" s="81"/>
-      <c r="W10" s="120" t="s">
+      <c r="V10" s="84"/>
+      <c r="W10" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="122"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="81"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="83"/>
+      <c r="AB10" s="84"/>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="98"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="83"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="86"/>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="88" t="s">
+      <c r="E12" s="92"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="78" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="78">
+      <c r="N12" s="87">
         <v>10</v>
       </c>
-      <c r="O12" s="112"/>
-      <c r="P12" s="96" t="s">
+      <c r="O12" s="111"/>
+      <c r="P12" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="78" t="s">
+      <c r="Q12" s="100"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="78" t="s">
+      <c r="T12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="80" t="s">
+      <c r="U12" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="V12" s="81"/>
-      <c r="W12" s="120" t="s">
+      <c r="V12" s="84"/>
+      <c r="W12" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="X12" s="121"/>
-      <c r="Y12" s="121"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="81"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="84"/>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="82"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="98"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="83"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86"/>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="88" t="s">
+      <c r="E14" s="92"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="78" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="87">
         <v>10</v>
       </c>
-      <c r="O14" s="112"/>
-      <c r="P14" s="96" t="s">
+      <c r="O14" s="111"/>
+      <c r="P14" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="78" t="s">
+      <c r="Q14" s="100"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="80">
+      <c r="U14" s="83">
         <v>13</v>
       </c>
-      <c r="V14" s="81"/>
-      <c r="W14" s="120" t="s">
+      <c r="V14" s="84"/>
+      <c r="W14" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="X14" s="121"/>
-      <c r="Y14" s="121"/>
-      <c r="Z14" s="122"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="81"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="84"/>
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="98"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="83"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="82"/>
-      <c r="AB15" s="83"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="86"/>
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="88" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="78" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="78">
+      <c r="N16" s="87">
         <v>3</v>
       </c>
-      <c r="O16" s="94"/>
-      <c r="P16" s="96" t="s">
+      <c r="O16" s="96"/>
+      <c r="P16" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="78" t="s">
+      <c r="Q16" s="100"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="78" t="s">
+      <c r="T16" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="80">
+      <c r="U16" s="83">
         <v>1</v>
       </c>
-      <c r="V16" s="81"/>
-      <c r="W16" s="120" t="s">
+      <c r="V16" s="84"/>
+      <c r="W16" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="X16" s="121"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="81"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="84"/>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="98"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="83"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="103"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="85"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="104" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="78" t="s">
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="78">
+      <c r="N18" s="87">
         <v>4</v>
       </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="96" t="s">
+      <c r="O18" s="96"/>
+      <c r="P18" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="78" t="s">
+      <c r="Q18" s="100"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="80">
+      <c r="U18" s="83">
         <v>1</v>
       </c>
-      <c r="V18" s="81"/>
-      <c r="W18" s="120" t="s">
+      <c r="V18" s="84"/>
+      <c r="W18" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="X18" s="121"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="81"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="84"/>
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="82"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="98"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="82"/>
-      <c r="AB19" s="83"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="85"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="85"/>
+      <c r="AB19" s="86"/>
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="88" t="s">
+      <c r="E20" s="92"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="78" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="87">
         <v>25</v>
       </c>
-      <c r="O20" s="99"/>
-      <c r="P20" s="96" t="s">
+      <c r="O20" s="113"/>
+      <c r="P20" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="78" t="s">
+      <c r="Q20" s="100"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="78" t="s">
+      <c r="T20" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="U20" s="80" t="s">
+      <c r="U20" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="81"/>
-      <c r="W20" s="120" t="s">
+      <c r="V20" s="84"/>
+      <c r="W20" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="X20" s="121"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="81"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="84"/>
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="98"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="83"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="83"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="86"/>
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="88" t="s">
+      <c r="E22" s="92"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="78" t="s">
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="78">
+      <c r="N22" s="87">
         <v>25</v>
       </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="96" t="s">
+      <c r="O22" s="113"/>
+      <c r="P22" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="78" t="s">
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="78" t="s">
+      <c r="T22" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="80">
+      <c r="U22" s="83">
         <v>8</v>
       </c>
-      <c r="V22" s="81"/>
-      <c r="W22" s="120" t="s">
+      <c r="V22" s="84"/>
+      <c r="W22" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="X22" s="121"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="81"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="84"/>
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="98"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="124"/>
-      <c r="Y23" s="124"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="82"/>
-      <c r="AB23" s="83"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="85"/>
+      <c r="AB23" s="86"/>
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="88" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="78" t="s">
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="78">
+      <c r="N24" s="87">
         <v>20</v>
       </c>
-      <c r="O24" s="110"/>
-      <c r="P24" s="96" t="s">
+      <c r="O24" s="115"/>
+      <c r="P24" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="78" t="s">
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T24" s="78" t="s">
+      <c r="T24" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="80">
+      <c r="U24" s="83">
         <v>34</v>
       </c>
-      <c r="V24" s="81"/>
-      <c r="W24" s="120" t="s">
+      <c r="V24" s="84"/>
+      <c r="W24" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="X24" s="121"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="81"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="84"/>
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="82"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="98"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="124"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="82"/>
-      <c r="AB25" s="83"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="103"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="85"/>
+      <c r="AB25" s="86"/>
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="88" t="s">
+      <c r="E26" s="92"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="78" t="s">
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="78">
+      <c r="N26" s="87">
         <v>5</v>
       </c>
-      <c r="O26" s="94"/>
-      <c r="P26" s="96" t="s">
+      <c r="O26" s="96"/>
+      <c r="P26" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="89"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="78" t="s">
+      <c r="Q26" s="100"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="78" t="s">
+      <c r="T26" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="80">
+      <c r="U26" s="83">
         <v>1</v>
       </c>
-      <c r="V26" s="81"/>
-      <c r="W26" s="120" t="s">
+      <c r="V26" s="84"/>
+      <c r="W26" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="122"/>
-      <c r="AA26" s="80"/>
-      <c r="AB26" s="81"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="84"/>
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="98"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="123"/>
-      <c r="X27" s="124"/>
-      <c r="Y27" s="124"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="82"/>
-      <c r="AB27" s="83"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="85"/>
+      <c r="AB27" s="86"/>
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="88" t="s">
+      <c r="E28" s="92"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="78" t="s">
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="78">
+      <c r="N28" s="87">
         <v>5</v>
       </c>
-      <c r="O28" s="94"/>
-      <c r="P28" s="96" t="s">
+      <c r="O28" s="96"/>
+      <c r="P28" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="78" t="s">
+      <c r="Q28" s="100"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="78" t="s">
+      <c r="T28" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="80">
+      <c r="U28" s="83">
         <v>1</v>
       </c>
-      <c r="V28" s="81"/>
-      <c r="W28" s="120" t="s">
+      <c r="V28" s="84"/>
+      <c r="W28" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="122"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="81"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="84"/>
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="123"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="83"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="86"/>
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="88" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="78" t="s">
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="78">
+      <c r="N30" s="87">
         <v>5</v>
       </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="96" t="s">
+      <c r="O30" s="96"/>
+      <c r="P30" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="89"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="78" t="s">
+      <c r="Q30" s="100"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="78" t="s">
+      <c r="T30" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="80">
+      <c r="U30" s="83">
         <v>1</v>
       </c>
-      <c r="V30" s="81"/>
-      <c r="W30" s="120" t="s">
+      <c r="V30" s="84"/>
+      <c r="W30" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="122"/>
-      <c r="AA30" s="80"/>
-      <c r="AB30" s="81"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="83"/>
+      <c r="AB30" s="84"/>
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="125"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="83"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="86"/>
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="84"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="88" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="78" t="s">
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="78">
+      <c r="N32" s="87">
         <v>3</v>
       </c>
-      <c r="O32" s="94"/>
-      <c r="P32" s="96" t="s">
+      <c r="O32" s="96"/>
+      <c r="P32" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="78" t="s">
+      <c r="Q32" s="100"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="78" t="s">
+      <c r="T32" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="80">
+      <c r="U32" s="83">
         <v>1</v>
       </c>
-      <c r="V32" s="81"/>
-      <c r="W32" s="120" t="s">
+      <c r="V32" s="84"/>
+      <c r="W32" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="122"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="81"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="84"/>
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="83"/>
-      <c r="W33" s="123"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="83"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="85"/>
+      <c r="AB33" s="86"/>
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="84"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="88" t="s">
+      <c r="E34" s="92"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="78" t="s">
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="78">
+      <c r="N34" s="87">
         <v>3</v>
       </c>
-      <c r="O34" s="94"/>
-      <c r="P34" s="96" t="s">
+      <c r="O34" s="96"/>
+      <c r="P34" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="78" t="s">
+      <c r="Q34" s="100"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T34" s="78" t="s">
+      <c r="T34" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="U34" s="80">
+      <c r="U34" s="83">
         <v>1</v>
       </c>
-      <c r="V34" s="81"/>
-      <c r="W34" s="120" t="s">
+      <c r="V34" s="84"/>
+      <c r="W34" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="122"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="81"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="83"/>
+      <c r="AB34" s="84"/>
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="83"/>
-      <c r="W35" s="123"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="83"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="81"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="82"/>
+      <c r="AA35" s="85"/>
+      <c r="AB35" s="86"/>
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="80" t="s">
+      <c r="D36" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="84"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="88" t="s">
+      <c r="E36" s="92"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="78" t="s">
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="78">
+      <c r="N36" s="87">
         <v>6</v>
       </c>
-      <c r="O36" s="112"/>
-      <c r="P36" s="96" t="s">
+      <c r="O36" s="111"/>
+      <c r="P36" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Q36" s="89"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="78" t="s">
+      <c r="Q36" s="100"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T36" s="78" t="s">
+      <c r="T36" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="U36" s="80">
+      <c r="U36" s="83">
         <v>2</v>
       </c>
-      <c r="V36" s="81"/>
-      <c r="W36" s="120" t="s">
+      <c r="V36" s="84"/>
+      <c r="W36" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="122"/>
-      <c r="AA36" s="80"/>
-      <c r="AB36" s="81"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="78"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="83"/>
+      <c r="AB36" s="84"/>
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="97"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="82"/>
-      <c r="V37" s="83"/>
-      <c r="W37" s="123"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="125"/>
-      <c r="AA37" s="82"/>
-      <c r="AB37" s="83"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="112"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="86"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="81"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="82"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="86"/>
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="84"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="88" t="s">
+      <c r="E38" s="92"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="78" t="s">
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="78">
+      <c r="N38" s="87">
         <v>6</v>
       </c>
-      <c r="O38" s="112"/>
-      <c r="P38" s="96" t="s">
+      <c r="O38" s="111"/>
+      <c r="P38" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="78" t="s">
+      <c r="Q38" s="100"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T38" s="78" t="s">
+      <c r="T38" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="U38" s="80">
+      <c r="U38" s="83">
         <v>2</v>
       </c>
-      <c r="V38" s="81"/>
-      <c r="W38" s="120" t="s">
+      <c r="V38" s="84"/>
+      <c r="W38" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="X38" s="121"/>
-      <c r="Y38" s="121"/>
-      <c r="Z38" s="122"/>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="81"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="78"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="83"/>
+      <c r="AB38" s="84"/>
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="83"/>
-      <c r="W39" s="123"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="82"/>
-      <c r="AB39" s="83"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="118"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="86"/>
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="88" t="s">
+      <c r="E40" s="92"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="78" t="s">
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="78">
+      <c r="N40" s="87">
         <v>6</v>
       </c>
-      <c r="O40" s="112"/>
-      <c r="P40" s="96" t="s">
+      <c r="O40" s="111"/>
+      <c r="P40" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="78" t="s">
+      <c r="Q40" s="100"/>
+      <c r="R40" s="101"/>
+      <c r="S40" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T40" s="78" t="s">
+      <c r="T40" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="U40" s="80">
+      <c r="U40" s="83">
         <v>2</v>
       </c>
-      <c r="V40" s="81"/>
-      <c r="W40" s="120" t="s">
+      <c r="V40" s="84"/>
+      <c r="W40" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="X40" s="121"/>
-      <c r="Y40" s="121"/>
-      <c r="Z40" s="122"/>
-      <c r="AA40" s="80"/>
-      <c r="AB40" s="81"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="83"/>
+      <c r="AB40" s="84"/>
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="113"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="93"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="125"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="83"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="81"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="86"/>
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="84"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="88" t="s">
+      <c r="E42" s="92"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="78" t="s">
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="78">
+      <c r="N42" s="87">
         <v>2</v>
       </c>
-      <c r="O42" s="94"/>
-      <c r="P42" s="96" t="s">
+      <c r="O42" s="96"/>
+      <c r="P42" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q42" s="89"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="78" t="s">
+      <c r="Q42" s="100"/>
+      <c r="R42" s="101"/>
+      <c r="S42" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="T42" s="78" t="s">
+      <c r="T42" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="U42" s="80">
+      <c r="U42" s="83">
         <v>1</v>
       </c>
-      <c r="V42" s="81"/>
-      <c r="W42" s="120" t="s">
+      <c r="V42" s="84"/>
+      <c r="W42" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="X42" s="121"/>
-      <c r="Y42" s="121"/>
-      <c r="Z42" s="122"/>
-      <c r="AA42" s="80"/>
-      <c r="AB42" s="81"/>
+      <c r="X42" s="78"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="83"/>
+      <c r="AB42" s="84"/>
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="93"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="83"/>
-      <c r="W43" s="123"/>
-      <c r="X43" s="124"/>
-      <c r="Y43" s="124"/>
-      <c r="Z43" s="125"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="83"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="103"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="81"/>
+      <c r="Y43" s="81"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="86"/>
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="80" t="s">
+      <c r="D44" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="88" t="s">
+      <c r="E44" s="92"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="78" t="s">
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="78">
+      <c r="N44" s="87">
         <v>4</v>
       </c>
-      <c r="O44" s="94"/>
-      <c r="P44" s="96" t="s">
+      <c r="O44" s="96"/>
+      <c r="P44" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="78" t="s">
+      <c r="Q44" s="100"/>
+      <c r="R44" s="101"/>
+      <c r="S44" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="T44" s="78" t="s">
+      <c r="T44" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="U44" s="80">
+      <c r="U44" s="83">
         <v>1</v>
       </c>
-      <c r="V44" s="81"/>
-      <c r="W44" s="120" t="s">
+      <c r="V44" s="84"/>
+      <c r="W44" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="122"/>
-      <c r="AA44" s="80"/>
-      <c r="AB44" s="81"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="79"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="84"/>
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="83"/>
-      <c r="W45" s="123"/>
-      <c r="X45" s="124"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="83"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="86"/>
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="80" t="s">
+      <c r="D46" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="88" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="78" t="s">
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="78">
+      <c r="N46" s="87">
         <v>4</v>
       </c>
-      <c r="O46" s="94"/>
-      <c r="P46" s="96" t="s">
+      <c r="O46" s="96"/>
+      <c r="P46" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="89"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="78" t="s">
+      <c r="Q46" s="100"/>
+      <c r="R46" s="101"/>
+      <c r="S46" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="T46" s="78" t="s">
+      <c r="T46" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="U46" s="80">
+      <c r="U46" s="83">
         <v>1</v>
       </c>
-      <c r="V46" s="81"/>
-      <c r="W46" s="120" t="s">
+      <c r="V46" s="84"/>
+      <c r="W46" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="X46" s="121"/>
-      <c r="Y46" s="121"/>
-      <c r="Z46" s="122"/>
-      <c r="AA46" s="80"/>
-      <c r="AB46" s="81"/>
+      <c r="X46" s="78"/>
+      <c r="Y46" s="78"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="84"/>
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="95"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="79"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="83"/>
-      <c r="W47" s="123"/>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="125"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="83"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="102"/>
+      <c r="Q47" s="103"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="86"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="86"/>
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -11925,6 +10926,229 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="247">
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="G28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="G42:L43"/>
+    <mergeCell ref="G44:L45"/>
+    <mergeCell ref="G46:L47"/>
+    <mergeCell ref="P22:R23"/>
+    <mergeCell ref="P24:R25"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="G20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:R21"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="P42:R43"/>
+    <mergeCell ref="P44:R45"/>
+    <mergeCell ref="P46:R47"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="P26:R27"/>
+    <mergeCell ref="P30:R31"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="G40:L41"/>
+    <mergeCell ref="G10:L11"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G16:L17"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="G22:L23"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="G26:L27"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="G32:L33"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="G36:L37"/>
+    <mergeCell ref="G38:L39"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="P32:R33"/>
+    <mergeCell ref="P34:R35"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="U30:V31"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="P18:R19"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AA8:AB9"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="AA12:AB13"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="W44:Z45"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA46:AB47"/>
+    <mergeCell ref="AA36:AB37"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="AA40:AB41"/>
+    <mergeCell ref="AA42:AB43"/>
+    <mergeCell ref="AA44:AB45"/>
+    <mergeCell ref="AA32:AB33"/>
+    <mergeCell ref="AA34:AB35"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:F37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
     <mergeCell ref="W46:Z47"/>
     <mergeCell ref="W22:Z23"/>
     <mergeCell ref="W12:Z13"/>
@@ -11949,229 +11173,6 @@
     <mergeCell ref="W38:Z39"/>
     <mergeCell ref="W40:Z41"/>
     <mergeCell ref="W42:Z43"/>
-    <mergeCell ref="W44:Z45"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA46:AB47"/>
-    <mergeCell ref="AA36:AB37"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="AA40:AB41"/>
-    <mergeCell ref="AA42:AB43"/>
-    <mergeCell ref="AA44:AB45"/>
-    <mergeCell ref="AA32:AB33"/>
-    <mergeCell ref="AA34:AB35"/>
-    <mergeCell ref="AA30:AB31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:F37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="D46:F47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="AA8:AB9"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="AA12:AB13"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P18:R19"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="U46:V47"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="U30:V31"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="U40:V41"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="U44:V45"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P8:R9"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="P12:R13"/>
-    <mergeCell ref="P14:R15"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="P32:R33"/>
-    <mergeCell ref="P34:R35"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="P38:R39"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="G40:L41"/>
-    <mergeCell ref="G10:L11"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G16:L17"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="G22:L23"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="G26:L27"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="G32:L33"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="G36:L37"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="G42:L43"/>
-    <mergeCell ref="G44:L45"/>
-    <mergeCell ref="G46:L47"/>
-    <mergeCell ref="P22:R23"/>
-    <mergeCell ref="P24:R25"/>
-    <mergeCell ref="D20:F21"/>
-    <mergeCell ref="G20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:R21"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="P42:R43"/>
-    <mergeCell ref="P44:R45"/>
-    <mergeCell ref="P46:R47"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="P26:R27"/>
-    <mergeCell ref="P30:R31"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="G28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N22:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12180,50 +11181,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:V51"/>
+  <dimension ref="D2:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="173" t="s">
+    <row r="2" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="144" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="174"/>
-      <c r="F3" s="184" t="s">
+      <c r="E3" s="145"/>
+      <c r="F3" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="186"/>
-    </row>
-    <row r="4" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="173"/>
-      <c r="E4" s="174"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155"/>
+    </row>
+    <row r="4" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="187" t="s">
+      <c r="G4" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="189"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="158"/>
       <c r="P4" s="29" t="s">
         <v>168</v>
       </c>
@@ -12236,1071 +11237,804 @@
       <c r="S4" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="T4" s="190" t="s">
+      <c r="T4" s="138" t="s">
         <v>152</v>
       </c>
-      <c r="U4" s="191"/>
-      <c r="V4" s="192"/>
-    </row>
-    <row r="5" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="170" t="s">
+      <c r="U4" s="139"/>
+      <c r="V4" s="140"/>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D5" s="144"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="178" t="s">
+      <c r="G5" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="175">
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="148"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="131">
         <v>8</v>
       </c>
-      <c r="Q5" s="175">
+      <c r="Q5" s="131">
         <v>2</v>
       </c>
-      <c r="R5" s="177">
+      <c r="R5" s="146">
         <v>43214</v>
       </c>
-      <c r="S5" s="172">
+      <c r="S5" s="143">
         <v>43215</v>
       </c>
-      <c r="T5" s="175" t="s">
-        <v>217</v>
-      </c>
-      <c r="U5" s="199"/>
-      <c r="V5" s="200"/>
-    </row>
-    <row r="6" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="173"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="201"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="203"/>
-    </row>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="170" t="s">
+      <c r="T5" s="131" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="133"/>
+      <c r="V5" s="134"/>
+    </row>
+    <row r="6" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="142"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="137"/>
+    </row>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="178" t="s">
+      <c r="G7" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="175">
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="131">
         <v>5</v>
       </c>
-      <c r="Q7" s="175">
+      <c r="Q7" s="131">
         <v>1</v>
       </c>
-      <c r="R7" s="177">
+      <c r="R7" s="146">
         <v>43216</v>
       </c>
-      <c r="S7" s="172">
+      <c r="S7" s="143">
         <v>43216</v>
       </c>
-      <c r="T7" s="193"/>
-      <c r="U7" s="194"/>
-      <c r="V7" s="195"/>
-    </row>
-    <row r="8" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="173"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="198"/>
-    </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D9" s="173"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="170" t="s">
+      <c r="T7" s="125"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="127"/>
+    </row>
+    <row r="8" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="130"/>
+    </row>
+    <row r="9" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="141" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="141">
+        <v>1</v>
+      </c>
+      <c r="R9" s="143">
+        <v>43224</v>
+      </c>
+      <c r="S9" s="143">
+        <v>43224</v>
+      </c>
+      <c r="T9" s="125"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="127"/>
+      <c r="W9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="152"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="129"/>
+      <c r="V10" s="130"/>
+    </row>
+    <row r="11" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="199" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="200"/>
+    </row>
+    <row r="16" spans="4:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="201"/>
+      <c r="E16" s="192"/>
+    </row>
+    <row r="17" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="201"/>
+      <c r="E17" s="192"/>
+    </row>
+    <row r="18" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="201"/>
+      <c r="E18" s="192"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="201"/>
+      <c r="E19" s="192"/>
+    </row>
+    <row r="20" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="201"/>
+      <c r="E20" s="192"/>
+    </row>
+    <row r="21" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="201"/>
+      <c r="E21" s="192"/>
+    </row>
+    <row r="22" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="201"/>
+      <c r="E22" s="192"/>
+    </row>
+    <row r="23" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="201"/>
+      <c r="E23" s="192"/>
+    </row>
+    <row r="24" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="201"/>
+      <c r="E24" s="192"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="201"/>
+      <c r="E25" s="192"/>
+    </row>
+    <row r="26" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="201"/>
+      <c r="E26" s="192"/>
+    </row>
+    <row r="27" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="201"/>
+      <c r="E27" s="192"/>
+    </row>
+    <row r="28" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="201"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="168" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="170"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="167">
+        <v>0</v>
+      </c>
+      <c r="K28" s="176" t="s">
+        <v>174</v>
+      </c>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="178"/>
+      <c r="O28" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="S28" s="171"/>
+      <c r="T28" s="172"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="201"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="173"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="175"/>
+    </row>
+    <row r="30" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="201"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="168">
+        <v>1</v>
+      </c>
+      <c r="K30" s="176" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="178"/>
+      <c r="O30" s="170" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="S30" s="177"/>
+      <c r="T30" s="178"/>
+    </row>
+    <row r="31" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="201"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="169"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="173"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="180"/>
+      <c r="T31" s="181"/>
+    </row>
+    <row r="32" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="201"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="196">
+        <v>2</v>
+      </c>
+      <c r="K32" s="176" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="178"/>
+      <c r="O32" s="176" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="178"/>
+      <c r="R32" s="176" t="s">
+        <v>183</v>
+      </c>
+      <c r="S32" s="177"/>
+      <c r="T32" s="178"/>
+    </row>
+    <row r="33" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="201"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="180"/>
+      <c r="T33" s="181"/>
+    </row>
+    <row r="34" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="201"/>
+      <c r="E34" s="192"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="196">
+        <v>3</v>
+      </c>
+      <c r="K34" s="176" t="s">
+        <v>185</v>
+      </c>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="176" t="s">
+        <v>177</v>
+      </c>
+      <c r="S34" s="177"/>
+      <c r="T34" s="178"/>
+    </row>
+    <row r="35" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="201"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="180"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="180"/>
+      <c r="T35" s="181"/>
+    </row>
+    <row r="36" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="201"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="196">
+        <v>4</v>
+      </c>
+      <c r="K36" s="176" t="s">
+        <v>178</v>
+      </c>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="176" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="176" t="s">
+        <v>194</v>
+      </c>
+      <c r="S36" s="177"/>
+      <c r="T36" s="178"/>
+    </row>
+    <row r="37" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="201"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="180"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="179"/>
+      <c r="S37" s="180"/>
+      <c r="T37" s="181"/>
+      <c r="AC37" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="175">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="175">
-        <v>3</v>
-      </c>
-      <c r="R9" s="177">
-        <v>43217</v>
-      </c>
-      <c r="S9" s="172">
-        <v>43223</v>
-      </c>
-      <c r="T9" s="193"/>
-      <c r="U9" s="194"/>
-      <c r="V9" s="195"/>
-    </row>
-    <row r="10" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="176"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="198"/>
-    </row>
-    <row r="11" spans="4:22" x14ac:dyDescent="0.3">
-      <c r="D11" s="173"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="170" t="s">
+      <c r="AD37" s="182"/>
+      <c r="AE37" s="183"/>
+      <c r="AF37" s="184"/>
+      <c r="AG37" s="159">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="182" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI37" s="183"/>
+      <c r="AJ37" s="183"/>
+      <c r="AK37" s="184"/>
+      <c r="AL37" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM37" s="162"/>
+      <c r="AN37" s="163"/>
+      <c r="AO37" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP37" s="162"/>
+      <c r="AQ37" s="163"/>
+    </row>
+    <row r="38" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="201"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="178" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="170">
+      <c r="G38" s="170"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="168">
+        <v>0</v>
+      </c>
+      <c r="K38" s="176" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="178"/>
+      <c r="O38" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="P38" s="171"/>
+      <c r="Q38" s="172"/>
+      <c r="R38" s="170" t="s">
+        <v>140</v>
+      </c>
+      <c r="S38" s="171"/>
+      <c r="T38" s="172"/>
+      <c r="AC38" s="188"/>
+      <c r="AD38" s="193"/>
+      <c r="AE38" s="194"/>
+      <c r="AF38" s="195"/>
+      <c r="AG38" s="160"/>
+      <c r="AH38" s="185"/>
+      <c r="AI38" s="186"/>
+      <c r="AJ38" s="186"/>
+      <c r="AK38" s="187"/>
+      <c r="AL38" s="164"/>
+      <c r="AM38" s="165"/>
+      <c r="AN38" s="166"/>
+      <c r="AO38" s="164"/>
+      <c r="AP38" s="165"/>
+      <c r="AQ38" s="166"/>
+    </row>
+    <row r="39" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="201"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="169"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="181"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="174"/>
+      <c r="T39" s="175"/>
+      <c r="AC39" s="188"/>
+      <c r="AD39" s="193"/>
+      <c r="AE39" s="194"/>
+      <c r="AF39" s="195"/>
+      <c r="AG39" s="159">
         <v>1</v>
       </c>
-      <c r="Q11" s="170">
+      <c r="AH39" s="182" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI39" s="183"/>
+      <c r="AJ39" s="183"/>
+      <c r="AK39" s="184"/>
+      <c r="AL39" s="182" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM39" s="183"/>
+      <c r="AN39" s="184"/>
+      <c r="AO39" s="182" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP39" s="183"/>
+      <c r="AQ39" s="184"/>
+    </row>
+    <row r="40" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="201"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="168">
         <v>1</v>
       </c>
-      <c r="R11" s="172">
-        <v>43224</v>
-      </c>
-      <c r="S11" s="172">
-        <v>43224</v>
-      </c>
-      <c r="T11" s="193"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="195"/>
-    </row>
-    <row r="12" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="173"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="171"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="171"/>
-      <c r="T12" s="196"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="198"/>
-    </row>
-    <row r="16" spans="4:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D17" s="168" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" s="169"/>
-      <c r="F17" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="165" t="s">
-        <v>185</v>
-      </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="165" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="165" t="s">
-        <v>176</v>
-      </c>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="166" t="s">
-        <v>177</v>
-      </c>
-      <c r="S17" s="166"/>
-      <c r="T17" s="167"/>
-    </row>
-    <row r="18" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="144">
-        <v>0</v>
-      </c>
-      <c r="K18" s="147" t="s">
+      <c r="K40" s="176" t="s">
+        <v>191</v>
+      </c>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="176" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="156" t="s">
-        <v>140</v>
-      </c>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="156" t="s">
-        <v>140</v>
-      </c>
-      <c r="S18" s="157"/>
-      <c r="T18" s="158"/>
-    </row>
-    <row r="19" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="168"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="161"/>
-    </row>
-    <row r="20" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="144">
-        <v>1</v>
-      </c>
-      <c r="K20" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="156" t="s">
-        <v>180</v>
-      </c>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="156" t="s">
-        <v>182</v>
-      </c>
-      <c r="S20" s="157"/>
-      <c r="T20" s="158"/>
-    </row>
-    <row r="21" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="161"/>
-    </row>
-    <row r="22" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="144">
+      <c r="P40" s="177"/>
+      <c r="Q40" s="178"/>
+      <c r="R40" s="176" t="s">
+        <v>195</v>
+      </c>
+      <c r="S40" s="177"/>
+      <c r="T40" s="178"/>
+      <c r="AC40" s="188"/>
+      <c r="AD40" s="193"/>
+      <c r="AE40" s="194"/>
+      <c r="AF40" s="195"/>
+      <c r="AG40" s="160"/>
+      <c r="AH40" s="185"/>
+      <c r="AI40" s="186"/>
+      <c r="AJ40" s="186"/>
+      <c r="AK40" s="187"/>
+      <c r="AL40" s="185"/>
+      <c r="AM40" s="186"/>
+      <c r="AN40" s="187"/>
+      <c r="AO40" s="185"/>
+      <c r="AP40" s="186"/>
+      <c r="AQ40" s="187"/>
+    </row>
+    <row r="41" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="202"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="169"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="169"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="180"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="180"/>
+      <c r="T41" s="181"/>
+      <c r="AC41" s="188"/>
+      <c r="AD41" s="193"/>
+      <c r="AE41" s="194"/>
+      <c r="AF41" s="195"/>
+      <c r="AG41" s="159">
         <v>2</v>
       </c>
-      <c r="K22" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="149"/>
-      <c r="O22" s="156" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="156" t="s">
-        <v>184</v>
-      </c>
-      <c r="S22" s="157"/>
-      <c r="T22" s="158"/>
-    </row>
-    <row r="23" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="161"/>
-    </row>
-    <row r="24" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="144">
-        <v>3</v>
-      </c>
-      <c r="K24" s="147" t="s">
-        <v>188</v>
-      </c>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="149"/>
-      <c r="O24" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="147" t="s">
+      <c r="AH41" s="182" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI41" s="183"/>
+      <c r="AJ41" s="183"/>
+      <c r="AK41" s="184"/>
+      <c r="AL41" s="182" t="s">
         <v>190</v>
       </c>
-      <c r="S24" s="148"/>
-      <c r="T24" s="149"/>
-    </row>
-    <row r="25" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="155"/>
-    </row>
-    <row r="26" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="144">
-        <v>4</v>
-      </c>
-      <c r="K26" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="149"/>
-      <c r="O26" s="147" t="s">
-        <v>191</v>
-      </c>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="147" t="s">
+      <c r="AM41" s="183"/>
+      <c r="AN41" s="184"/>
+      <c r="AO41" s="182" t="s">
         <v>193</v>
       </c>
-      <c r="S26" s="148"/>
-      <c r="T26" s="149"/>
-    </row>
-    <row r="27" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="154"/>
-      <c r="T27" s="155"/>
-    </row>
-    <row r="28" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="144">
-        <v>5</v>
-      </c>
-      <c r="K28" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="147" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="S28" s="148"/>
-      <c r="T28" s="149"/>
-    </row>
-    <row r="29" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="153"/>
-      <c r="S29" s="154"/>
-      <c r="T29" s="155"/>
-    </row>
-    <row r="30" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="139">
-        <v>0</v>
-      </c>
-      <c r="K30" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="S30" s="127"/>
-      <c r="T30" s="128"/>
-    </row>
-    <row r="31" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="137"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="131"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="131"/>
-    </row>
-    <row r="32" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="138">
-        <v>1</v>
-      </c>
-      <c r="K32" s="132" t="s">
-        <v>205</v>
-      </c>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="132" t="s">
-        <v>196</v>
-      </c>
-      <c r="S32" s="133"/>
-      <c r="T32" s="134"/>
-    </row>
-    <row r="33" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="137"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="131"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="136"/>
-      <c r="T33" s="137"/>
-    </row>
-    <row r="34" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="168"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="163">
-        <v>2</v>
-      </c>
-      <c r="K34" s="132" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="133"/>
-      <c r="M34" s="133"/>
-      <c r="N34" s="134"/>
-      <c r="O34" s="132" t="s">
-        <v>202</v>
-      </c>
-      <c r="P34" s="133"/>
-      <c r="Q34" s="134"/>
-      <c r="R34" s="132" t="s">
-        <v>204</v>
-      </c>
-      <c r="S34" s="133"/>
-      <c r="T34" s="134"/>
-    </row>
-    <row r="35" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="168"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="136"/>
-      <c r="N35" s="137"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="137"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="137"/>
-    </row>
-    <row r="36" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="168"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="163">
-        <v>3</v>
-      </c>
-      <c r="K36" s="132" t="s">
-        <v>206</v>
-      </c>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="134"/>
-      <c r="O36" s="132" t="s">
-        <v>197</v>
-      </c>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="134"/>
-      <c r="R36" s="132" t="s">
-        <v>198</v>
-      </c>
-      <c r="S36" s="133"/>
-      <c r="T36" s="134"/>
-    </row>
-    <row r="37" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="135"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="137"/>
-      <c r="O37" s="135"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="137"/>
-      <c r="R37" s="135"/>
-      <c r="S37" s="136"/>
-      <c r="T37" s="137"/>
-    </row>
-    <row r="38" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="168"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="163">
-        <v>4</v>
-      </c>
-      <c r="K38" s="132" t="s">
-        <v>199</v>
-      </c>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
-      <c r="N38" s="134"/>
-      <c r="O38" s="132" t="s">
+      <c r="AP41" s="183"/>
+      <c r="AQ41" s="184"/>
+    </row>
+    <row r="42" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="G42" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="P38" s="133"/>
-      <c r="Q38" s="134"/>
-      <c r="R38" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="S38" s="133"/>
-      <c r="T38" s="134"/>
-    </row>
-    <row r="39" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="168"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="131"/>
-      <c r="J39" s="164"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="135"/>
-      <c r="P39" s="136"/>
-      <c r="Q39" s="137"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="136"/>
-      <c r="T39" s="137"/>
-    </row>
-    <row r="40" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="168"/>
-      <c r="E40" s="169"/>
-      <c r="F40" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="147"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="144">
-        <v>0</v>
-      </c>
-      <c r="K40" s="147" t="s">
-        <v>207</v>
-      </c>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="156" t="s">
-        <v>140</v>
-      </c>
-      <c r="P40" s="157"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="156" t="s">
-        <v>140</v>
-      </c>
-      <c r="S40" s="157"/>
-      <c r="T40" s="158"/>
-    </row>
-    <row r="41" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="168"/>
-      <c r="E41" s="169"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="159"/>
-      <c r="P41" s="160"/>
-      <c r="Q41" s="161"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="160"/>
-      <c r="T41" s="161"/>
-    </row>
-    <row r="42" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="168"/>
-      <c r="E42" s="169"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="144">
-        <v>1</v>
-      </c>
-      <c r="K42" s="147" t="s">
-        <v>208</v>
-      </c>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="147" t="s">
-        <v>209</v>
-      </c>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="147" t="s">
-        <v>213</v>
-      </c>
-      <c r="S42" s="148"/>
-      <c r="T42" s="149"/>
-    </row>
-    <row r="43" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="168"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
-      <c r="N43" s="155"/>
-      <c r="O43" s="150"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="154"/>
-      <c r="T43" s="155"/>
-    </row>
-    <row r="44" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="168"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="144">
-        <v>2</v>
-      </c>
-      <c r="K44" s="147" t="s">
-        <v>210</v>
-      </c>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="147" t="s">
-        <v>211</v>
-      </c>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="149"/>
-      <c r="R44" s="147" t="s">
-        <v>214</v>
-      </c>
-      <c r="S44" s="148"/>
-      <c r="T44" s="149"/>
-    </row>
-    <row r="45" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D45" s="168"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="153"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="153"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="155"/>
-      <c r="R45" s="153"/>
-      <c r="S45" s="154"/>
-      <c r="T45" s="155"/>
-    </row>
-    <row r="46" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="168"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="138">
-        <v>0</v>
-      </c>
-      <c r="K46" s="132" t="s">
-        <v>207</v>
-      </c>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="P46" s="127"/>
-      <c r="Q46" s="128"/>
-      <c r="R46" s="126" t="s">
-        <v>140</v>
-      </c>
-      <c r="S46" s="127"/>
-      <c r="T46" s="128"/>
-    </row>
-    <row r="47" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="168"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="135"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="136"/>
-      <c r="N47" s="137"/>
-      <c r="O47" s="129"/>
-      <c r="P47" s="130"/>
-      <c r="Q47" s="131"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="130"/>
-      <c r="T47" s="131"/>
-    </row>
-    <row r="48" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="168"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="143"/>
-      <c r="J48" s="138">
-        <v>1</v>
-      </c>
-      <c r="K48" s="132" t="s">
-        <v>212</v>
-      </c>
-      <c r="L48" s="133"/>
-      <c r="M48" s="133"/>
-      <c r="N48" s="134"/>
-      <c r="O48" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="P48" s="133"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="132" t="s">
-        <v>216</v>
-      </c>
-      <c r="S48" s="133"/>
-      <c r="T48" s="134"/>
-    </row>
-    <row r="49" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="168"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="131"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="137"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="137"/>
-      <c r="R49" s="135"/>
-      <c r="S49" s="136"/>
-      <c r="T49" s="137"/>
-    </row>
-    <row r="50" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-    </row>
-    <row r="51" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="AC42" s="160"/>
+      <c r="AD42" s="185"/>
+      <c r="AE42" s="186"/>
+      <c r="AF42" s="187"/>
+      <c r="AG42" s="160"/>
+      <c r="AH42" s="185"/>
+      <c r="AI42" s="186"/>
+      <c r="AJ42" s="186"/>
+      <c r="AK42" s="187"/>
+      <c r="AL42" s="185"/>
+      <c r="AM42" s="186"/>
+      <c r="AN42" s="187"/>
+      <c r="AO42" s="185"/>
+      <c r="AP42" s="186"/>
+      <c r="AQ42" s="187"/>
+    </row>
+    <row r="43" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+    </row>
+    <row r="44" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+    </row>
+    <row r="45" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+    </row>
+    <row r="46" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="198"/>
+      <c r="E46" s="198"/>
+    </row>
+    <row r="47" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+    </row>
+    <row r="48" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+    </row>
+    <row r="49" spans="4:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="T11:V12"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T7:V8"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="D3:E12"/>
+  <mergeCells count="72">
+    <mergeCell ref="R38:T39"/>
+    <mergeCell ref="R40:T41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:I41"/>
+    <mergeCell ref="K38:N39"/>
+    <mergeCell ref="K40:N41"/>
+    <mergeCell ref="O38:Q39"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="AC37:AC42"/>
+    <mergeCell ref="AD37:AF42"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="AL37:AN38"/>
+    <mergeCell ref="AL39:AN40"/>
+    <mergeCell ref="AL41:AN42"/>
+    <mergeCell ref="AO37:AQ38"/>
+    <mergeCell ref="AO39:AQ40"/>
+    <mergeCell ref="AO41:AQ42"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AH37:AK38"/>
+    <mergeCell ref="AH39:AK40"/>
+    <mergeCell ref="AH41:AK42"/>
+    <mergeCell ref="R36:T37"/>
+    <mergeCell ref="O36:Q37"/>
+    <mergeCell ref="K36:N37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="O32:Q33"/>
+    <mergeCell ref="R32:T33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:N35"/>
+    <mergeCell ref="O34:Q35"/>
+    <mergeCell ref="R34:T35"/>
+    <mergeCell ref="F28:F37"/>
+    <mergeCell ref="G28:I37"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="K28:N29"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="D15:E41"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="R28:T29"/>
+    <mergeCell ref="R30:T31"/>
+    <mergeCell ref="D3:E10"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
     <mergeCell ref="G9:O10"/>
-    <mergeCell ref="G11:O12"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P9:P10"/>
     <mergeCell ref="F3:O3"/>
     <mergeCell ref="G4:O4"/>
     <mergeCell ref="G5:O6"/>
@@ -13308,83 +12042,15 @@
     <mergeCell ref="G7:O8"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="O18:Q19"/>
-    <mergeCell ref="R18:T19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="R20:T21"/>
-    <mergeCell ref="R22:T23"/>
-    <mergeCell ref="R30:T31"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:T25"/>
-    <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="R26:T27"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="F18:F29"/>
-    <mergeCell ref="F30:F39"/>
-    <mergeCell ref="G30:I39"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="K22:N23"/>
-    <mergeCell ref="D17:E49"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:N25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K26:N27"/>
-    <mergeCell ref="K28:N29"/>
-    <mergeCell ref="G18:I29"/>
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="K38:N39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:N35"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:N37"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:I49"/>
-    <mergeCell ref="K46:N47"/>
-    <mergeCell ref="K48:N49"/>
-    <mergeCell ref="O46:Q47"/>
-    <mergeCell ref="O48:Q49"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="G40:I45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="R42:T43"/>
-    <mergeCell ref="R44:T45"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K40:N41"/>
-    <mergeCell ref="K42:N43"/>
-    <mergeCell ref="K44:N45"/>
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Backlog/NetProbe_Scrum.xlsx
+++ b/Backlog/NetProbe_Scrum.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="183">
   <si>
     <t>ID</t>
   </si>
@@ -540,45 +540,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>Tests                                                                 &amp;                                                    Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial State : U-test Data Exchange Running, NetProbe Compiled and Launched </t>
-  </si>
-  <si>
-    <t>Pop Up Window Appearance, Asking to  Name Project &amp; import of the project file</t>
-  </si>
-  <si>
-    <t>Enter the name in the defined Text area</t>
-  </si>
-  <si>
-    <t>Acceptance Message if name Format is correct, Error message if not</t>
-  </si>
-  <si>
-    <t>Creating the project</t>
-  </si>
-  <si>
-    <t>Click on "Create Project" (Name is Correct and project file is imported)</t>
-  </si>
-  <si>
-    <t>Closing the Project Creation Window</t>
-  </si>
-  <si>
-    <t>Click on "Close" Button</t>
-  </si>
-  <si>
-    <t>Click on "Create A new Project" Button</t>
-  </si>
-  <si>
-    <t>Close Project Creation Window and go to NetProbe Home Window</t>
-  </si>
-  <si>
-    <t>Openning the New Project Creation Assistant</t>
-  </si>
-  <si>
-    <t>Naming the Project (Reopen New Project assistant First)</t>
-  </si>
-  <si>
     <t>Initial State : U-test Data Exchange Running, NetProbe Compiled and New project creation assistant opened</t>
   </si>
   <si>
@@ -594,34 +555,19 @@
     <t>Click on "Create project" (Name is Correct and project file is imported)</t>
   </si>
   <si>
-    <t>Saving the project file</t>
-  </si>
-  <si>
     <t>Display of the project file's path in the defined text area</t>
   </si>
   <si>
     <t>Processing of the project file and creation of corresponding tables in the database</t>
   </si>
   <si>
-    <t>Creation and backup of the new Project File and Dashboard display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation of a project file's copy with the same name as the project </t>
-  </si>
-  <si>
     <t>finished the 26/04/2018</t>
   </si>
   <si>
-    <t>Open *Project dans Sprint 1</t>
-  </si>
-  <si>
     <t>Import doit être splitté en plusieurs files</t>
   </si>
   <si>
     <t>jonctions, groupes, RMO/ECS/…, ICD</t>
-  </si>
-  <si>
-    <t>Intégrer save as pour le renommer</t>
   </si>
 </sst>
 </file>
@@ -689,7 +635,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,12 +723,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1235,6 +1175,120 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,15 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1262,106 +1307,130 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,131 +1451,119 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,12 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,195 +1607,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3867,828 +3737,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Connecteur droit 93"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7078980" y="5783580"/>
-          <a:ext cx="0" cy="480060"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Connecteur droit 94"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4785360" y="6256020"/>
-          <a:ext cx="2293620" cy="7620"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Connecteur droit 95"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="6271260"/>
-          <a:ext cx="7620" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>13960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>273040</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="Connecteur droit avec flèche 96"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="108" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="6696700"/>
-          <a:ext cx="227320" cy="8900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="Groupe 97"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4754880" y="5227320"/>
-          <a:ext cx="716280" cy="441960"/>
-          <a:chOff x="2232" y="1205507"/>
-          <a:chExt cx="729563" cy="332184"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="Chevron 98"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2232" y="1205507"/>
-            <a:ext cx="729563" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="168324" y="1205507"/>
-            <a:ext cx="498276" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28004" tIns="9335" rIns="9335" bIns="9335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="311150">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Initial State</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="101" name="Groupe 100"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5265420" y="5227320"/>
-          <a:ext cx="1005840" cy="441960"/>
-          <a:chOff x="1116" y="1172914"/>
-          <a:chExt cx="993427" cy="397371"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="Chevron 101"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1116" y="1172914"/>
-            <a:ext cx="993427" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="162174" y="1172914"/>
-            <a:ext cx="726227" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32004" tIns="10668" rIns="10668" bIns="10668" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Open</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>New Project</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200" baseline="0"/>
-              <a:t> Assistant</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR" sz="1000" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>716369</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>60961</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="104" name="Groupe 103"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6065520" y="5227321"/>
-          <a:ext cx="990689" cy="434340"/>
-          <a:chOff x="11616" y="1124694"/>
-          <a:chExt cx="1234529" cy="493811"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="Chevron 104"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11616" y="1124694"/>
-            <a:ext cx="1234529" cy="493811"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="106" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="192031" y="1124694"/>
-            <a:ext cx="833712" cy="493811"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="44006" tIns="14669" rIns="14669" bIns="14669" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="488950">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1050" kern="1200"/>
-              <a:t>Close New Project Assistant</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35540</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="107" name="Groupe 106"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4823460" y="6156960"/>
-          <a:ext cx="861060" cy="416540"/>
-          <a:chOff x="0" y="2090439"/>
-          <a:chExt cx="1631900" cy="664924"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="Chevron 107"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="2090439"/>
-            <a:ext cx="1631900" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="297250" y="2102603"/>
-            <a:ext cx="1099617" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60008" tIns="20003" rIns="20003" bIns="20003" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Name Project</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>35540</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="110" name="Groupe 109"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5486400" y="6156960"/>
-          <a:ext cx="853440" cy="416540"/>
-          <a:chOff x="0" y="2090439"/>
-          <a:chExt cx="1631900" cy="664924"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="Chevron 110"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="2090439"/>
-            <a:ext cx="1631900" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="112" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="283454" y="2102603"/>
-            <a:ext cx="1099618" cy="652760"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60008" tIns="20003" rIns="20003" bIns="20003" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="666750">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Create the Project</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -4707,7 +3755,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23020020" y="7040880"/>
+          <a:off x="23020020" y="7033260"/>
           <a:ext cx="716280" cy="434340"/>
           <a:chOff x="2232" y="1205507"/>
           <a:chExt cx="729563" cy="332184"/>
@@ -4832,7 +3880,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23530560" y="7048500"/>
+          <a:off x="23530560" y="7040880"/>
           <a:ext cx="1005840" cy="419100"/>
           <a:chOff x="1116" y="1172914"/>
           <a:chExt cx="993427" cy="397371"/>
@@ -4957,7 +4005,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24330660" y="7040881"/>
+          <a:off x="24330660" y="7033261"/>
           <a:ext cx="990689" cy="426720"/>
           <a:chOff x="11616" y="1124694"/>
           <a:chExt cx="1234529" cy="493811"/>
@@ -5055,256 +4103,6 @@
             <a:r>
               <a:rPr lang="fr-FR" sz="1050" kern="1200"/>
               <a:t>Process the Project File</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="122" name="Groupe 121"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5036820" y="7033260"/>
-          <a:ext cx="716280" cy="441960"/>
-          <a:chOff x="2232" y="1205507"/>
-          <a:chExt cx="729563" cy="332184"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Chevron 122"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2232" y="1205507"/>
-            <a:ext cx="729563" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="124" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="168324" y="1205507"/>
-            <a:ext cx="498276" cy="332184"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="28004" tIns="9335" rIns="9335" bIns="9335" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="311150">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Initial State</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="125" name="Groupe 124"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5547360" y="7033260"/>
-          <a:ext cx="1005840" cy="441960"/>
-          <a:chOff x="1116" y="1172914"/>
-          <a:chExt cx="993427" cy="397371"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="Chevron 125"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1116" y="1172914"/>
-            <a:ext cx="993427" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="chevron">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="Chevron 4"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="162174" y="1172914"/>
-            <a:ext cx="726227" cy="397371"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32004" tIns="10668" rIns="10668" bIns="10668" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1000" kern="1200"/>
-              <a:t>Save the project file</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -5611,22 +4409,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:45" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -5675,19 +4473,19 @@
     <row r="4" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -5695,10 +4493,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="41"/>
+      <c r="T4" s="76"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -5706,12 +4504,12 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="8"/>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="58"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="51"/>
     </row>
     <row r="5" spans="1:45" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -5741,13 +4539,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="8"/>
-      <c r="AL5" s="56" t="s">
+      <c r="AL5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="58"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="51"/>
     </row>
     <row r="6" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -5758,8 +4556,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -5787,8 +4585,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5806,30 +4604,30 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="37">
+      <c r="AB7" s="69">
         <v>5</v>
       </c>
-      <c r="AC7" s="44">
+      <c r="AC7" s="57">
         <v>5</v>
       </c>
-      <c r="AD7" s="47">
+      <c r="AD7" s="60">
         <v>10</v>
       </c>
-      <c r="AE7" s="50">
+      <c r="AE7" s="63">
         <v>15</v>
       </c>
-      <c r="AF7" s="50">
+      <c r="AF7" s="63">
         <v>20</v>
       </c>
-      <c r="AG7" s="53">
+      <c r="AG7" s="66">
         <v>25</v>
       </c>
-      <c r="AO7" s="68" t="s">
+      <c r="AO7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="70"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="38"/>
     </row>
     <row r="8" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -5840,8 +4638,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -5859,12 +4657,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="54"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="67"/>
       <c r="AJ8" s="11" t="s">
         <v>72</v>
       </c>
@@ -5893,8 +4691,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -5912,22 +4710,22 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="55"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="68"/>
       <c r="AJ9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="AK9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AM9" s="61" t="s">
+      <c r="AM9" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AN9" s="62"/>
+      <c r="AN9" s="56"/>
       <c r="AO9" s="11" t="s">
         <v>74</v>
       </c>
@@ -5953,8 +4751,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5972,22 +4770,22 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="37">
+      <c r="AB10" s="69">
         <v>4</v>
       </c>
-      <c r="AC10" s="44">
+      <c r="AC10" s="57">
         <v>4</v>
       </c>
-      <c r="AD10" s="47">
+      <c r="AD10" s="60">
         <v>8</v>
       </c>
-      <c r="AE10" s="47">
+      <c r="AE10" s="60">
         <v>12</v>
       </c>
-      <c r="AF10" s="50">
+      <c r="AF10" s="63">
         <v>16</v>
       </c>
-      <c r="AG10" s="50">
+      <c r="AG10" s="63">
         <v>20</v>
       </c>
       <c r="AJ10" s="10" t="s">
@@ -5996,10 +4794,10 @@
       <c r="AK10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AM10" s="63" t="s">
+      <c r="AM10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="AN10" s="64"/>
+      <c r="AN10" s="40"/>
       <c r="AO10" s="13" t="s">
         <v>119</v>
       </c>
@@ -6026,8 +4824,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -6045,22 +4843,22 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="51"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
       <c r="AJ11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AK11" s="59" t="s">
+      <c r="AK11" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AM11" s="63" t="s">
+      <c r="AM11" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="AN11" s="64"/>
+      <c r="AN11" s="40"/>
       <c r="AO11" s="13" t="s">
         <v>119</v>
       </c>
@@ -6087,8 +4885,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -6106,20 +4904,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52"/>
+      <c r="AB12" s="71"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="65"/>
+      <c r="AG12" s="65"/>
       <c r="AJ12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AK12" s="60"/>
-      <c r="AM12" s="65" t="s">
+      <c r="AK12" s="54"/>
+      <c r="AM12" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="AN12" s="66"/>
+      <c r="AN12" s="44"/>
       <c r="AO12" s="13" t="s">
         <v>119</v>
       </c>
@@ -6146,8 +4944,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -6165,22 +4963,22 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="37">
+      <c r="AB13" s="69">
         <v>3</v>
       </c>
-      <c r="AC13" s="44">
+      <c r="AC13" s="57">
         <v>3</v>
       </c>
-      <c r="AD13" s="47">
+      <c r="AD13" s="60">
         <v>6</v>
       </c>
-      <c r="AE13" s="47">
+      <c r="AE13" s="60">
         <v>9</v>
       </c>
-      <c r="AF13" s="47">
+      <c r="AF13" s="60">
         <v>12</v>
       </c>
-      <c r="AG13" s="50">
+      <c r="AG13" s="63">
         <v>15</v>
       </c>
       <c r="AJ13" s="10" t="s">
@@ -6189,10 +4987,10 @@
       <c r="AK13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AM13" s="65" t="s">
+      <c r="AM13" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="AN13" s="66"/>
+      <c r="AN13" s="44"/>
       <c r="AO13" s="13" t="s">
         <v>120</v>
       </c>
@@ -6219,8 +5017,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -6238,22 +5036,22 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="51"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="64"/>
       <c r="AJ14" s="10" t="s">
         <v>89</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM14" s="71" t="s">
+      <c r="AM14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="AN14" s="72"/>
+      <c r="AN14" s="42"/>
       <c r="AO14" s="13" t="s">
         <v>119</v>
       </c>
@@ -6280,8 +5078,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -6299,22 +5097,22 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="46"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="52"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="65"/>
       <c r="AJ15" s="10" t="s">
         <v>90</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM15" s="71" t="s">
+      <c r="AM15" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="AN15" s="72"/>
+      <c r="AN15" s="42"/>
       <c r="AO15" s="13" t="s">
         <v>117</v>
       </c>
@@ -6341,8 +5139,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6360,22 +5158,22 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="37">
+      <c r="AB16" s="69">
         <v>2</v>
       </c>
-      <c r="AC16" s="44">
+      <c r="AC16" s="57">
         <v>2</v>
       </c>
-      <c r="AD16" s="44">
+      <c r="AD16" s="57">
         <v>4</v>
       </c>
-      <c r="AE16" s="47">
+      <c r="AE16" s="60">
         <v>6</v>
       </c>
-      <c r="AF16" s="47">
+      <c r="AF16" s="60">
         <v>8</v>
       </c>
-      <c r="AG16" s="47">
+      <c r="AG16" s="60">
         <v>10</v>
       </c>
       <c r="AJ16" s="10" t="s">
@@ -6384,10 +5182,10 @@
       <c r="AK16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AM16" s="71" t="s">
+      <c r="AM16" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="AN16" s="72"/>
+      <c r="AN16" s="42"/>
       <c r="AO16" s="13" t="s">
         <v>117</v>
       </c>
@@ -6414,8 +5212,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6433,22 +5231,22 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
       <c r="AJ17" s="10" t="s">
         <v>93</v>
       </c>
       <c r="AK17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AM17" s="71" t="s">
+      <c r="AM17" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="AN17" s="72"/>
+      <c r="AN17" s="42"/>
       <c r="AO17" s="13" t="s">
         <v>117</v>
       </c>
@@ -6475,8 +5273,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -6494,22 +5292,22 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
       <c r="AJ18" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="AM18" s="71" t="s">
+      <c r="AM18" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AN18" s="72"/>
+      <c r="AN18" s="42"/>
       <c r="AO18" s="13" t="s">
         <v>117</v>
       </c>
@@ -6555,22 +5353,22 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="37">
+      <c r="AB19" s="69">
         <v>1</v>
       </c>
-      <c r="AC19" s="44">
+      <c r="AC19" s="57">
         <v>1</v>
       </c>
-      <c r="AD19" s="44">
+      <c r="AD19" s="57">
         <v>2</v>
       </c>
-      <c r="AE19" s="44">
+      <c r="AE19" s="57">
         <v>3</v>
       </c>
-      <c r="AF19" s="44">
+      <c r="AF19" s="57">
         <v>4</v>
       </c>
-      <c r="AG19" s="44">
+      <c r="AG19" s="57">
         <v>5</v>
       </c>
       <c r="AJ19" s="14" t="s">
@@ -6579,10 +5377,10 @@
       <c r="AK19" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM19" s="71" t="s">
+      <c r="AM19" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="AN19" s="72"/>
+      <c r="AN19" s="42"/>
       <c r="AO19" s="13" t="s">
         <v>117</v>
       </c>
@@ -6628,22 +5426,22 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
       <c r="AJ20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM20" s="63" t="s">
+      <c r="AM20" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="AN20" s="64"/>
+      <c r="AN20" s="40"/>
       <c r="AO20" s="13" t="s">
         <v>117</v>
       </c>
@@ -6689,22 +5487,22 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46"/>
-      <c r="AG21" s="46"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
       <c r="AJ21" s="14" t="s">
         <v>83</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AM21" s="71" t="s">
+      <c r="AM21" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AN21" s="72"/>
+      <c r="AN21" s="42"/>
       <c r="AO21" s="13" t="s">
         <v>117</v>
       </c>
@@ -6750,25 +5548,25 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="8"/>
-      <c r="AC22" s="37">
+      <c r="AC22" s="69">
         <v>1</v>
       </c>
-      <c r="AD22" s="37">
+      <c r="AD22" s="69">
         <v>2</v>
       </c>
-      <c r="AE22" s="37">
+      <c r="AE22" s="69">
         <v>3</v>
       </c>
-      <c r="AF22" s="37">
+      <c r="AF22" s="69">
         <v>4</v>
       </c>
-      <c r="AG22" s="37">
+      <c r="AG22" s="69">
         <v>5</v>
       </c>
-      <c r="AM22" s="71" t="s">
+      <c r="AM22" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="AN22" s="72"/>
+      <c r="AN22" s="42"/>
       <c r="AO22" s="13" t="s">
         <v>117</v>
       </c>
@@ -6814,15 +5612,15 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="8"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AM23" s="65" t="s">
+      <c r="AC23" s="70"/>
+      <c r="AD23" s="70"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
+      <c r="AM23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AN23" s="66"/>
+      <c r="AN23" s="44"/>
       <c r="AO23" s="13" t="s">
         <v>118</v>
       </c>
@@ -6868,15 +5666,15 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="8"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AM24" s="73" t="s">
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AM24" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="AN24" s="74"/>
+      <c r="AN24" s="46"/>
       <c r="AO24" s="22" t="s">
         <v>117</v>
       </c>
@@ -6922,10 +5720,10 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="8"/>
-      <c r="AM25" s="75" t="s">
+      <c r="AM25" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AN25" s="76"/>
+      <c r="AN25" s="48"/>
       <c r="AO25" s="13" t="s">
         <v>117</v>
       </c>
@@ -6971,10 +5769,10 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="8"/>
-      <c r="AM26" s="67" t="s">
+      <c r="AM26" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AN26" s="67"/>
+      <c r="AN26" s="35"/>
       <c r="AO26" s="24"/>
       <c r="AP26" s="24"/>
       <c r="AQ26" s="24"/>
@@ -7009,10 +5807,10 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="8"/>
-      <c r="AM27" s="34" t="s">
+      <c r="AM27" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="AN27" s="35"/>
+      <c r="AN27" s="73"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -7686,29 +6484,29 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="6"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="41" t="s">
+      <c r="K51" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="L51" s="41"/>
+      <c r="L51" s="76"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="41" t="s">
+      <c r="S51" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="T51" s="41"/>
+      <c r="T51" s="76"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
@@ -7785,8 +6583,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -8306,12 +7104,12 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -9009,20 +7807,45 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO7:AR7"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="AB19:AB21"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="I6:J18"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AB10:AB12"/>
+    <mergeCell ref="AB13:AB15"/>
+    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AD19:AD21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AF19:AF21"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AF22:AF24"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AD13:AD15"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AF13:AF15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AD10:AD12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AF10:AF12"/>
+    <mergeCell ref="AG10:AG12"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="I72:L72"/>
     <mergeCell ref="AK11:AK12"/>
@@ -9039,45 +7862,20 @@
     <mergeCell ref="AG16:AG18"/>
     <mergeCell ref="AC7:AC9"/>
     <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AD10:AD12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AF10:AF12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AD13:AD15"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AF13:AF15"/>
-    <mergeCell ref="AG13:AG15"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AD22:AD24"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AF22:AF24"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AD19:AD21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AF19:AF21"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="AB19:AB21"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="I6:J18"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AB10:AB12"/>
-    <mergeCell ref="AB13:AB15"/>
-    <mergeCell ref="AB16:AB18"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO7:AR7"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AM19:AN19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9090,8 +7888,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B4:AC49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:L19"/>
+    <sheetView topLeftCell="F1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9177,14 +7975,14 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="107"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="116"/>
       <c r="S6" s="26" t="s">
         <v>2</v>
       </c>
@@ -9204,1651 +8002,1651 @@
       <c r="C7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="117" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="110"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="119"/>
       <c r="S7" s="27" t="s">
         <v>45</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="U7" s="89" t="s">
+      <c r="U7" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="V7" s="91"/>
-      <c r="W7" s="89" t="s">
+      <c r="V7" s="103"/>
+      <c r="W7" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="89" t="s">
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AB7" s="91"/>
+      <c r="AB7" s="103"/>
       <c r="AC7" s="3"/>
     </row>
     <row r="8" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="87" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="83">
+      <c r="N8" s="80">
         <v>5</v>
       </c>
-      <c r="O8" s="96"/>
-      <c r="P8" s="99" t="s">
+      <c r="O8" s="94"/>
+      <c r="P8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="87" t="s">
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T8" s="87" t="s">
+      <c r="T8" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="83">
+      <c r="U8" s="80">
         <v>5</v>
       </c>
-      <c r="V8" s="84"/>
-      <c r="W8" s="77" t="s">
+      <c r="V8" s="81"/>
+      <c r="W8" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="84"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="122"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="81"/>
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="85"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="98"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="81"/>
-      <c r="Y9" s="81"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="86"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="83"/>
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="3"/>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="117" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="87" t="s">
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="87">
+      <c r="N10" s="78">
         <v>4</v>
       </c>
-      <c r="O10" s="96"/>
-      <c r="P10" s="99" t="s">
+      <c r="O10" s="94"/>
+      <c r="P10" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="87" t="s">
+      <c r="Q10" s="89"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T10" s="87" t="s">
+      <c r="T10" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="83">
+      <c r="U10" s="80">
         <v>1</v>
       </c>
-      <c r="V10" s="84"/>
-      <c r="W10" s="77" t="s">
+      <c r="V10" s="81"/>
+      <c r="W10" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="84"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="122"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="81"/>
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="85"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="98"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="86"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="83"/>
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="117" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="87" t="s">
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="87">
+      <c r="N12" s="78">
         <v>10</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="99" t="s">
+      <c r="O12" s="112"/>
+      <c r="P12" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="87" t="s">
+      <c r="Q12" s="89"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="87" t="s">
+      <c r="T12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="83" t="s">
+      <c r="U12" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="V12" s="84"/>
-      <c r="W12" s="77" t="s">
+      <c r="V12" s="81"/>
+      <c r="W12" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="84"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="81"/>
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="85"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="98"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="81"/>
-      <c r="Y13" s="81"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="86"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="83"/>
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="117" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="87" t="s">
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="78">
         <v>10</v>
       </c>
-      <c r="O14" s="111"/>
-      <c r="P14" s="99" t="s">
+      <c r="O14" s="112"/>
+      <c r="P14" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="87" t="s">
+      <c r="Q14" s="89"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="T14" s="87" t="s">
+      <c r="T14" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="U14" s="83">
+      <c r="U14" s="80">
         <v>13</v>
       </c>
-      <c r="V14" s="84"/>
-      <c r="W14" s="77" t="s">
+      <c r="V14" s="81"/>
+      <c r="W14" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="83"/>
-      <c r="AB14" s="84"/>
+      <c r="X14" s="121"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="122"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="81"/>
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="98"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="86"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="82"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="82"/>
+      <c r="AB15" s="83"/>
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="117" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="87" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="87">
+      <c r="N16" s="78">
         <v>3</v>
       </c>
-      <c r="O16" s="96"/>
-      <c r="P16" s="99" t="s">
+      <c r="O16" s="94"/>
+      <c r="P16" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="87" t="s">
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="87" t="s">
+      <c r="T16" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="83">
+      <c r="U16" s="80">
         <v>1</v>
       </c>
-      <c r="V16" s="84"/>
-      <c r="W16" s="77" t="s">
+      <c r="V16" s="81"/>
+      <c r="W16" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="84"/>
+      <c r="X16" s="121"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="81"/>
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="85"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="98"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="86"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="83"/>
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="2:29" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="119" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="87" t="s">
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N18" s="87">
+      <c r="N18" s="78">
         <v>4</v>
       </c>
-      <c r="O18" s="96"/>
-      <c r="P18" s="99" t="s">
+      <c r="O18" s="94"/>
+      <c r="P18" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="87" t="s">
+      <c r="Q18" s="89"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="87" t="s">
+      <c r="T18" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="83">
+      <c r="U18" s="80">
         <v>1</v>
       </c>
-      <c r="V18" s="84"/>
-      <c r="W18" s="77" t="s">
+      <c r="V18" s="81"/>
+      <c r="W18" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="84"/>
+      <c r="X18" s="121"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="122"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="81"/>
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="85"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="98"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="86"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83"/>
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="117" t="s">
+      <c r="E20" s="84"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="87" t="s">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="87">
+      <c r="N20" s="78">
         <v>25</v>
       </c>
-      <c r="O20" s="113"/>
-      <c r="P20" s="99" t="s">
+      <c r="O20" s="99"/>
+      <c r="P20" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="87" t="s">
+      <c r="Q20" s="89"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="87" t="s">
+      <c r="T20" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="U20" s="83" t="s">
+      <c r="U20" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="V20" s="84"/>
-      <c r="W20" s="77" t="s">
+      <c r="V20" s="81"/>
+      <c r="W20" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="84"/>
+      <c r="X20" s="121"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="81"/>
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="98"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="85"/>
-      <c r="AB21" s="86"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="83"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="82"/>
+      <c r="AB21" s="83"/>
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="2:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="117" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="87" t="s">
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="87">
+      <c r="N22" s="78">
         <v>25</v>
       </c>
-      <c r="O22" s="113"/>
-      <c r="P22" s="99" t="s">
+      <c r="O22" s="99"/>
+      <c r="P22" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="87" t="s">
+      <c r="Q22" s="89"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="87" t="s">
+      <c r="T22" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="U22" s="83">
+      <c r="U22" s="80">
         <v>8</v>
       </c>
-      <c r="V22" s="84"/>
-      <c r="W22" s="77" t="s">
+      <c r="V22" s="81"/>
+      <c r="W22" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="84"/>
+      <c r="X22" s="121"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="81"/>
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="3"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="85"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="98"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="81"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="85"/>
-      <c r="AB23" s="86"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="124"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="83"/>
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="117" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="87" t="s">
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="87">
+      <c r="N24" s="78">
         <v>20</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="99" t="s">
+      <c r="O24" s="110"/>
+      <c r="P24" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="87" t="s">
+      <c r="Q24" s="89"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T24" s="87" t="s">
+      <c r="T24" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="U24" s="83">
+      <c r="U24" s="80">
         <v>34</v>
       </c>
-      <c r="V24" s="84"/>
-      <c r="W24" s="77" t="s">
+      <c r="V24" s="81"/>
+      <c r="W24" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="84"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="81"/>
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="98"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="85"/>
-      <c r="AB25" s="86"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="123"/>
+      <c r="X25" s="124"/>
+      <c r="Y25" s="124"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="82"/>
+      <c r="AB25" s="83"/>
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="117" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="87" t="s">
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="87">
+      <c r="N26" s="78">
         <v>5</v>
       </c>
-      <c r="O26" s="96"/>
-      <c r="P26" s="99" t="s">
+      <c r="O26" s="94"/>
+      <c r="P26" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="87" t="s">
+      <c r="Q26" s="89"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="87" t="s">
+      <c r="T26" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="83">
+      <c r="U26" s="80">
         <v>1</v>
       </c>
-      <c r="V26" s="84"/>
-      <c r="W26" s="77" t="s">
+      <c r="V26" s="81"/>
+      <c r="W26" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X26" s="78"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="83"/>
-      <c r="AB26" s="84"/>
+      <c r="X26" s="121"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="122"/>
+      <c r="AA26" s="80"/>
+      <c r="AB26" s="81"/>
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="85"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="98"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="104"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="82"/>
-      <c r="AA27" s="85"/>
-      <c r="AB27" s="86"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="123"/>
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="83"/>
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="117" t="s">
+      <c r="E28" s="84"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="87" t="s">
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N28" s="87">
+      <c r="N28" s="78">
         <v>5</v>
       </c>
-      <c r="O28" s="96"/>
-      <c r="P28" s="99" t="s">
+      <c r="O28" s="94"/>
+      <c r="P28" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="87" t="s">
+      <c r="Q28" s="89"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="87" t="s">
+      <c r="T28" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="U28" s="83">
+      <c r="U28" s="80">
         <v>1</v>
       </c>
-      <c r="V28" s="84"/>
-      <c r="W28" s="77" t="s">
+      <c r="V28" s="81"/>
+      <c r="W28" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="83"/>
-      <c r="AB28" s="84"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="122"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="81"/>
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
-      <c r="Z29" s="82"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="86"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="82"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="83"/>
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="117" t="s">
+      <c r="E30" s="84"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="87" t="s">
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="87">
+      <c r="N30" s="78">
         <v>5</v>
       </c>
-      <c r="O30" s="96"/>
-      <c r="P30" s="99" t="s">
+      <c r="O30" s="94"/>
+      <c r="P30" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="87" t="s">
+      <c r="Q30" s="89"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="87" t="s">
+      <c r="T30" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="U30" s="83">
+      <c r="U30" s="80">
         <v>1</v>
       </c>
-      <c r="V30" s="84"/>
-      <c r="W30" s="77" t="s">
+      <c r="V30" s="81"/>
+      <c r="W30" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="83"/>
-      <c r="AB30" s="84"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="81"/>
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="3"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="86"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="83"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="124"/>
+      <c r="Y31" s="124"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="83"/>
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3"/>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="92"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="117" t="s">
+      <c r="E32" s="84"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="87" t="s">
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N32" s="87">
+      <c r="N32" s="78">
         <v>3</v>
       </c>
-      <c r="O32" s="96"/>
-      <c r="P32" s="99" t="s">
+      <c r="O32" s="94"/>
+      <c r="P32" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="87" t="s">
+      <c r="Q32" s="89"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T32" s="87" t="s">
+      <c r="T32" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="U32" s="83">
+      <c r="U32" s="80">
         <v>1</v>
       </c>
-      <c r="V32" s="84"/>
-      <c r="W32" s="77" t="s">
+      <c r="V32" s="81"/>
+      <c r="W32" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="83"/>
-      <c r="AB32" s="84"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="122"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="81"/>
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="85"/>
-      <c r="AB33" s="86"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="83"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="83"/>
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="117" t="s">
+      <c r="E34" s="84"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="87" t="s">
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="87">
+      <c r="N34" s="78">
         <v>3</v>
       </c>
-      <c r="O34" s="96"/>
-      <c r="P34" s="99" t="s">
+      <c r="O34" s="94"/>
+      <c r="P34" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="100"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="87" t="s">
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T34" s="87" t="s">
+      <c r="T34" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U34" s="83">
+      <c r="U34" s="80">
         <v>1</v>
       </c>
-      <c r="V34" s="84"/>
-      <c r="W34" s="77" t="s">
+      <c r="V34" s="81"/>
+      <c r="W34" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="83"/>
-      <c r="AB34" s="84"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="122"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="81"/>
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="80"/>
-      <c r="X35" s="81"/>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="85"/>
-      <c r="AB35" s="86"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="83"/>
+      <c r="W35" s="123"/>
+      <c r="X35" s="124"/>
+      <c r="Y35" s="124"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="82"/>
+      <c r="AB35" s="83"/>
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="117" t="s">
+      <c r="E36" s="84"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="87" t="s">
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="87">
+      <c r="N36" s="78">
         <v>6</v>
       </c>
-      <c r="O36" s="111"/>
-      <c r="P36" s="99" t="s">
+      <c r="O36" s="112"/>
+      <c r="P36" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q36" s="100"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="87" t="s">
+      <c r="Q36" s="89"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T36" s="87" t="s">
+      <c r="T36" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U36" s="83">
+      <c r="U36" s="80">
         <v>2</v>
       </c>
-      <c r="V36" s="84"/>
-      <c r="W36" s="77" t="s">
+      <c r="V36" s="81"/>
+      <c r="W36" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="78"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="83"/>
-      <c r="AB36" s="84"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="Z36" s="122"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="81"/>
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="112"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="80"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="82"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="86"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="83"/>
+      <c r="W37" s="123"/>
+      <c r="X37" s="124"/>
+      <c r="Y37" s="124"/>
+      <c r="Z37" s="125"/>
+      <c r="AA37" s="82"/>
+      <c r="AB37" s="83"/>
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="117" t="s">
+      <c r="E38" s="84"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="87" t="s">
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="87">
+      <c r="N38" s="78">
         <v>6</v>
       </c>
-      <c r="O38" s="111"/>
-      <c r="P38" s="99" t="s">
+      <c r="O38" s="112"/>
+      <c r="P38" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="87" t="s">
+      <c r="Q38" s="89"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T38" s="87" t="s">
+      <c r="T38" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U38" s="83">
+      <c r="U38" s="80">
         <v>2</v>
       </c>
-      <c r="V38" s="84"/>
-      <c r="W38" s="77" t="s">
+      <c r="V38" s="81"/>
+      <c r="W38" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="83"/>
-      <c r="AB38" s="84"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="Z38" s="122"/>
+      <c r="AA38" s="80"/>
+      <c r="AB38" s="81"/>
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="112"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="104"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="86"/>
-      <c r="W39" s="80"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="82"/>
-      <c r="AA39" s="85"/>
-      <c r="AB39" s="86"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="91"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="83"/>
+      <c r="W39" s="123"/>
+      <c r="X39" s="124"/>
+      <c r="Y39" s="124"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="83"/>
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="117" t="s">
+      <c r="E40" s="84"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="87" t="s">
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N40" s="87">
+      <c r="N40" s="78">
         <v>6</v>
       </c>
-      <c r="O40" s="111"/>
-      <c r="P40" s="99" t="s">
+      <c r="O40" s="112"/>
+      <c r="P40" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="Q40" s="100"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="87" t="s">
+      <c r="Q40" s="89"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T40" s="87" t="s">
+      <c r="T40" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="U40" s="83">
+      <c r="U40" s="80">
         <v>2</v>
       </c>
-      <c r="V40" s="84"/>
-      <c r="W40" s="77" t="s">
+      <c r="V40" s="81"/>
+      <c r="W40" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="78"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="83"/>
-      <c r="AB40" s="84"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="Z40" s="122"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="81"/>
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="118"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="112"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="104"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="86"/>
-      <c r="W41" s="80"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="85"/>
-      <c r="AB41" s="86"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="97"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="123"/>
+      <c r="X41" s="124"/>
+      <c r="Y41" s="124"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="83"/>
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="117" t="s">
+      <c r="E42" s="84"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="87" t="s">
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N42" s="87">
+      <c r="N42" s="78">
         <v>2</v>
       </c>
-      <c r="O42" s="96"/>
-      <c r="P42" s="99" t="s">
+      <c r="O42" s="94"/>
+      <c r="P42" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q42" s="100"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="87" t="s">
+      <c r="Q42" s="89"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="T42" s="87" t="s">
+      <c r="T42" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U42" s="83">
+      <c r="U42" s="80">
         <v>1</v>
       </c>
-      <c r="V42" s="84"/>
-      <c r="W42" s="77" t="s">
+      <c r="V42" s="81"/>
+      <c r="W42" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="79"/>
-      <c r="AA42" s="83"/>
-      <c r="AB42" s="84"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="122"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="81"/>
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="3"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="104"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="80"/>
-      <c r="X43" s="81"/>
-      <c r="Y43" s="81"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="86"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="93"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="83"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="124"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="83"/>
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
-      <c r="C44" s="87" t="s">
+      <c r="C44" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="117" t="s">
+      <c r="E44" s="84"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="87" t="s">
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N44" s="87">
+      <c r="N44" s="78">
         <v>4</v>
       </c>
-      <c r="O44" s="96"/>
-      <c r="P44" s="99" t="s">
+      <c r="O44" s="94"/>
+      <c r="P44" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="87" t="s">
+      <c r="Q44" s="89"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="T44" s="87" t="s">
+      <c r="T44" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="U44" s="83">
+      <c r="U44" s="80">
         <v>1</v>
       </c>
-      <c r="V44" s="84"/>
-      <c r="W44" s="77" t="s">
+      <c r="V44" s="81"/>
+      <c r="W44" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="79"/>
-      <c r="AA44" s="83"/>
-      <c r="AB44" s="84"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="Z44" s="122"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="81"/>
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="3"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="80"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="85"/>
-      <c r="AB45" s="86"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="79"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="123"/>
+      <c r="X45" s="124"/>
+      <c r="Y45" s="124"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="83"/>
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="2:29" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="117" t="s">
+      <c r="E46" s="84"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="87" t="s">
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="87">
+      <c r="N46" s="78">
         <v>4</v>
       </c>
-      <c r="O46" s="96"/>
-      <c r="P46" s="99" t="s">
+      <c r="O46" s="94"/>
+      <c r="P46" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="87" t="s">
+      <c r="Q46" s="89"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="T46" s="87" t="s">
+      <c r="T46" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="U46" s="83">
+      <c r="U46" s="80">
         <v>1</v>
       </c>
-      <c r="V46" s="84"/>
-      <c r="W46" s="77" t="s">
+      <c r="V46" s="81"/>
+      <c r="W46" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="X46" s="78"/>
-      <c r="Y46" s="78"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="83"/>
-      <c r="AB46" s="84"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="Z46" s="122"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="81"/>
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="2:29" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="3"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="85"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="80"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="85"/>
-      <c r="AB47" s="86"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="79"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="123"/>
+      <c r="X47" s="124"/>
+      <c r="Y47" s="124"/>
+      <c r="Z47" s="125"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="83"/>
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.3">
@@ -10926,19 +9724,216 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="247">
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="G28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:R29"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="W46:Z47"/>
+    <mergeCell ref="W22:Z23"/>
+    <mergeCell ref="W12:Z13"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z9"/>
+    <mergeCell ref="W10:Z11"/>
+    <mergeCell ref="W14:Z15"/>
+    <mergeCell ref="W16:Z17"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="W20:Z21"/>
+    <mergeCell ref="W24:Z25"/>
+    <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="W28:Z29"/>
+    <mergeCell ref="W30:Z31"/>
+    <mergeCell ref="W32:Z33"/>
+    <mergeCell ref="W34:Z35"/>
+    <mergeCell ref="W36:Z37"/>
+    <mergeCell ref="W38:Z39"/>
+    <mergeCell ref="W40:Z41"/>
+    <mergeCell ref="W42:Z43"/>
+    <mergeCell ref="W44:Z45"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA46:AB47"/>
+    <mergeCell ref="AA36:AB37"/>
+    <mergeCell ref="AA38:AB39"/>
+    <mergeCell ref="AA40:AB41"/>
+    <mergeCell ref="AA42:AB43"/>
+    <mergeCell ref="AA44:AB45"/>
+    <mergeCell ref="AA32:AB33"/>
+    <mergeCell ref="AA34:AB35"/>
+    <mergeCell ref="AA30:AB31"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:F37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="D34:F35"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="D40:F41"/>
+    <mergeCell ref="D42:F43"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="D46:F47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AA8:AB9"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="AA12:AB13"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="AA18:AB19"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AA24:AB25"/>
+    <mergeCell ref="AA26:AB27"/>
+    <mergeCell ref="D22:F23"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="P18:R19"/>
+    <mergeCell ref="D8:F9"/>
+    <mergeCell ref="D10:F11"/>
+    <mergeCell ref="D12:F13"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="U46:V47"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="U22:V23"/>
+    <mergeCell ref="U24:V25"/>
+    <mergeCell ref="U26:V27"/>
+    <mergeCell ref="U30:V31"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="U38:V39"/>
+    <mergeCell ref="U40:V41"/>
+    <mergeCell ref="U42:V43"/>
+    <mergeCell ref="U44:V45"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="P10:R11"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="P14:R15"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="P32:R33"/>
+    <mergeCell ref="P34:R35"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="P38:R39"/>
+    <mergeCell ref="P40:R41"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="G8:L9"/>
+    <mergeCell ref="G40:L41"/>
+    <mergeCell ref="G10:L11"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G12:L13"/>
+    <mergeCell ref="G14:L15"/>
+    <mergeCell ref="G16:L17"/>
+    <mergeCell ref="G18:L19"/>
+    <mergeCell ref="G22:L23"/>
+    <mergeCell ref="G24:L25"/>
+    <mergeCell ref="G26:L27"/>
+    <mergeCell ref="G30:L31"/>
+    <mergeCell ref="G32:L33"/>
+    <mergeCell ref="G34:L35"/>
+    <mergeCell ref="G36:L37"/>
+    <mergeCell ref="G38:L39"/>
     <mergeCell ref="G42:L43"/>
     <mergeCell ref="G44:L45"/>
     <mergeCell ref="G46:L47"/>
@@ -10963,216 +9958,19 @@
     <mergeCell ref="N32:N33"/>
     <mergeCell ref="P26:R27"/>
     <mergeCell ref="P30:R31"/>
-    <mergeCell ref="G8:L9"/>
-    <mergeCell ref="G40:L41"/>
-    <mergeCell ref="G10:L11"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G12:L13"/>
-    <mergeCell ref="G14:L15"/>
-    <mergeCell ref="G16:L17"/>
-    <mergeCell ref="G18:L19"/>
-    <mergeCell ref="G22:L23"/>
-    <mergeCell ref="G24:L25"/>
-    <mergeCell ref="G26:L27"/>
-    <mergeCell ref="G30:L31"/>
-    <mergeCell ref="G32:L33"/>
-    <mergeCell ref="G34:L35"/>
-    <mergeCell ref="G36:L37"/>
-    <mergeCell ref="G38:L39"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="P32:R33"/>
-    <mergeCell ref="P34:R35"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="P38:R39"/>
-    <mergeCell ref="P40:R41"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P8:R9"/>
-    <mergeCell ref="P10:R11"/>
-    <mergeCell ref="P12:R13"/>
-    <mergeCell ref="P14:R15"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="U46:V47"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="U22:V23"/>
-    <mergeCell ref="U24:V25"/>
-    <mergeCell ref="U26:V27"/>
-    <mergeCell ref="U30:V31"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="U38:V39"/>
-    <mergeCell ref="U40:V41"/>
-    <mergeCell ref="U42:V43"/>
-    <mergeCell ref="U44:V45"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="P18:R19"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="D12:F13"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="AA8:AB9"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="AA12:AB13"/>
-    <mergeCell ref="AA14:AB15"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="AA18:AB19"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="AA24:AB25"/>
-    <mergeCell ref="AA26:AB27"/>
-    <mergeCell ref="D22:F23"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="D26:F27"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="S46:S47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D38:F39"/>
-    <mergeCell ref="D40:F41"/>
-    <mergeCell ref="D42:F43"/>
-    <mergeCell ref="D44:F45"/>
-    <mergeCell ref="D46:F47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="T46:T47"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="W44:Z45"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA46:AB47"/>
-    <mergeCell ref="AA36:AB37"/>
-    <mergeCell ref="AA38:AB39"/>
-    <mergeCell ref="AA40:AB41"/>
-    <mergeCell ref="AA42:AB43"/>
-    <mergeCell ref="AA44:AB45"/>
-    <mergeCell ref="AA32:AB33"/>
-    <mergeCell ref="AA34:AB35"/>
-    <mergeCell ref="AA30:AB31"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:F37"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D32:F33"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="W46:Z47"/>
-    <mergeCell ref="W22:Z23"/>
-    <mergeCell ref="W12:Z13"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="W7:Z7"/>
-    <mergeCell ref="W8:Z9"/>
-    <mergeCell ref="W10:Z11"/>
-    <mergeCell ref="W14:Z15"/>
-    <mergeCell ref="W16:Z17"/>
-    <mergeCell ref="W18:Z19"/>
-    <mergeCell ref="W20:Z21"/>
-    <mergeCell ref="W24:Z25"/>
-    <mergeCell ref="W26:Z27"/>
-    <mergeCell ref="W28:Z29"/>
-    <mergeCell ref="W30:Z31"/>
-    <mergeCell ref="W32:Z33"/>
-    <mergeCell ref="W34:Z35"/>
-    <mergeCell ref="W36:Z37"/>
-    <mergeCell ref="W38:Z39"/>
-    <mergeCell ref="W40:Z41"/>
-    <mergeCell ref="W42:Z43"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="G28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="N22:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11183,8 +9981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11195,18 +9993,18 @@
         <v>172</v>
       </c>
       <c r="E3" s="145"/>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="160"/>
     </row>
     <row r="4" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="144"/>
@@ -11214,17 +10012,17 @@
       <c r="F4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="163"/>
       <c r="P4" s="29" t="s">
         <v>168</v>
       </c>
@@ -11237,707 +10035,835 @@
       <c r="S4" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="T4" s="138" t="s">
+      <c r="T4" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="U4" s="139"/>
-      <c r="V4" s="140"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="177"/>
     </row>
     <row r="5" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D5" s="144"/>
       <c r="E5" s="145"/>
-      <c r="F5" s="141" t="s">
+      <c r="F5" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="131">
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="148">
         <v>8</v>
       </c>
-      <c r="Q5" s="131">
+      <c r="Q5" s="148">
         <v>2</v>
       </c>
-      <c r="R5" s="146">
+      <c r="R5" s="150">
         <v>43214</v>
       </c>
-      <c r="S5" s="143">
+      <c r="S5" s="146">
         <v>43215</v>
       </c>
-      <c r="T5" s="131" t="s">
-        <v>196</v>
-      </c>
-      <c r="U5" s="133"/>
-      <c r="V5" s="134"/>
+      <c r="T5" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="170"/>
+      <c r="V5" s="171"/>
     </row>
     <row r="6" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="144"/>
       <c r="E6" s="145"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="132"/>
-      <c r="R6" s="132"/>
-      <c r="S6" s="142"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="137"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="174"/>
     </row>
     <row r="7" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D7" s="144"/>
       <c r="E7" s="145"/>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="157" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="131">
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="148">
         <v>5</v>
       </c>
-      <c r="Q7" s="131">
+      <c r="Q7" s="148">
         <v>1</v>
       </c>
-      <c r="R7" s="146">
+      <c r="R7" s="150">
         <v>43216</v>
       </c>
-      <c r="S7" s="143">
+      <c r="S7" s="146">
         <v>43216</v>
       </c>
-      <c r="T7" s="125"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="127"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="166"/>
     </row>
     <row r="8" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="144"/>
       <c r="E8" s="145"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="129"/>
-      <c r="V8" s="130"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="169"/>
     </row>
     <row r="9" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D9" s="144"/>
       <c r="E9" s="145"/>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="141">
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="157">
         <v>1</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="Q9" s="157">
         <v>1</v>
       </c>
-      <c r="R9" s="143">
+      <c r="R9" s="146">
         <v>43224</v>
       </c>
-      <c r="S9" s="143">
+      <c r="S9" s="146">
         <v>43224</v>
       </c>
-      <c r="T9" s="125"/>
-      <c r="U9" s="126"/>
-      <c r="V9" s="127"/>
-      <c r="W9" t="s">
-        <v>197</v>
-      </c>
+      <c r="T9" s="164"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="166"/>
     </row>
     <row r="10" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="144"/>
       <c r="E10" s="145"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="129"/>
-      <c r="V10" s="130"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="147"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="169"/>
     </row>
     <row r="11" spans="4:26" x14ac:dyDescent="0.3">
       <c r="W11" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="Z11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="4:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>182</v>
+      </c>
+    </row>
     <row r="15" spans="4:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="199" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="180"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="180"/>
+      <c r="T15" s="180"/>
+    </row>
+    <row r="16" spans="4:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="180"/>
+      <c r="S16" s="180"/>
+      <c r="T16" s="180"/>
+    </row>
+    <row r="17" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="180"/>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="180"/>
+    </row>
+    <row r="18" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="180"/>
+      <c r="S18" s="180"/>
+      <c r="T18" s="180"/>
+    </row>
+    <row r="19" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="180"/>
+      <c r="Q19" s="180"/>
+      <c r="R19" s="180"/>
+      <c r="S19" s="180"/>
+      <c r="T19" s="180"/>
+    </row>
+    <row r="20" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+    </row>
+    <row r="21" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="180"/>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180"/>
+      <c r="T21" s="180"/>
+    </row>
+    <row r="22" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+    </row>
+    <row r="23" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="180"/>
+      <c r="R23" s="180"/>
+      <c r="S23" s="180"/>
+      <c r="T23" s="180"/>
+    </row>
+    <row r="24" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="180"/>
+      <c r="R24" s="180"/>
+      <c r="S24" s="180"/>
+      <c r="T24" s="180"/>
+    </row>
+    <row r="25" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="180"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="180"/>
+      <c r="T25" s="180"/>
+    </row>
+    <row r="26" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="180"/>
+      <c r="R26" s="180"/>
+      <c r="S26" s="180"/>
+      <c r="T26" s="180"/>
+    </row>
+    <row r="27" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="180"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="180"/>
+      <c r="T27" s="180"/>
+    </row>
+    <row r="28" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="179"/>
+      <c r="O28" s="178"/>
+      <c r="P28" s="178"/>
+      <c r="Q28" s="178"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+    </row>
+    <row r="29" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="178"/>
+      <c r="Q29" s="178"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+    </row>
+    <row r="30" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="178"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="178"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="179"/>
+      <c r="T30" s="179"/>
+    </row>
+    <row r="31" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="178"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="179"/>
+      <c r="S31" s="179"/>
+      <c r="T31" s="179"/>
+    </row>
+    <row r="32" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="179"/>
+      <c r="R32" s="179"/>
+      <c r="S32" s="179"/>
+      <c r="T32" s="179"/>
+    </row>
+    <row r="33" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="179"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="179"/>
+      <c r="Q33" s="179"/>
+      <c r="R33" s="179"/>
+      <c r="S33" s="179"/>
+      <c r="T33" s="179"/>
+    </row>
+    <row r="34" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
+      <c r="H34" s="178"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="179"/>
+      <c r="T34" s="179"/>
+    </row>
+    <row r="35" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="179"/>
+      <c r="R35" s="179"/>
+      <c r="S35" s="179"/>
+      <c r="T35" s="179"/>
+    </row>
+    <row r="36" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="179"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="179"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
+      <c r="Q36" s="179"/>
+      <c r="R36" s="179"/>
+      <c r="S36" s="179"/>
+      <c r="T36" s="179"/>
+    </row>
+    <row r="37" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="179"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="179"/>
+      <c r="O37" s="179"/>
+      <c r="P37" s="179"/>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179"/>
+      <c r="S37" s="179"/>
+      <c r="T37" s="179"/>
+      <c r="AC37" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD37" s="129"/>
+      <c r="AE37" s="130"/>
+      <c r="AF37" s="131"/>
+      <c r="AG37" s="126">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="200"/>
-    </row>
-    <row r="16" spans="4:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="201"/>
-      <c r="E16" s="192"/>
-    </row>
-    <row r="17" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="201"/>
-      <c r="E17" s="192"/>
-    </row>
-    <row r="18" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="201"/>
-      <c r="E18" s="192"/>
-    </row>
-    <row r="19" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="201"/>
-      <c r="E19" s="192"/>
-    </row>
-    <row r="20" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="201"/>
-      <c r="E20" s="192"/>
-    </row>
-    <row r="21" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="201"/>
-      <c r="E21" s="192"/>
-    </row>
-    <row r="22" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="201"/>
-      <c r="E22" s="192"/>
-    </row>
-    <row r="23" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="201"/>
-      <c r="E23" s="192"/>
-    </row>
-    <row r="24" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="201"/>
-      <c r="E24" s="192"/>
-    </row>
-    <row r="25" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="201"/>
-      <c r="E25" s="192"/>
-    </row>
-    <row r="26" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="201"/>
-      <c r="E26" s="192"/>
-    </row>
-    <row r="27" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="201"/>
-      <c r="E27" s="192"/>
-    </row>
-    <row r="28" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="201"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="170"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="167">
-        <v>0</v>
-      </c>
-      <c r="K28" s="176" t="s">
+      <c r="AI37" s="130"/>
+      <c r="AJ37" s="130"/>
+      <c r="AK37" s="131"/>
+      <c r="AL37" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM37" s="139"/>
+      <c r="AN37" s="140"/>
+      <c r="AO37" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP37" s="139"/>
+      <c r="AQ37" s="140"/>
+    </row>
+    <row r="38" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="179"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="179"/>
+      <c r="O38" s="178"/>
+      <c r="P38" s="178"/>
+      <c r="Q38" s="178"/>
+      <c r="R38" s="178"/>
+      <c r="S38" s="178"/>
+      <c r="T38" s="178"/>
+      <c r="AC38" s="127"/>
+      <c r="AD38" s="132"/>
+      <c r="AE38" s="133"/>
+      <c r="AF38" s="134"/>
+      <c r="AG38" s="128"/>
+      <c r="AH38" s="135"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="136"/>
+      <c r="AK38" s="137"/>
+      <c r="AL38" s="141"/>
+      <c r="AM38" s="142"/>
+      <c r="AN38" s="143"/>
+      <c r="AO38" s="141"/>
+      <c r="AP38" s="142"/>
+      <c r="AQ38" s="143"/>
+    </row>
+    <row r="39" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="179"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="178"/>
+      <c r="R39" s="178"/>
+      <c r="S39" s="178"/>
+      <c r="T39" s="178"/>
+      <c r="AC39" s="127"/>
+      <c r="AD39" s="132"/>
+      <c r="AE39" s="133"/>
+      <c r="AF39" s="134"/>
+      <c r="AG39" s="126">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="170" t="s">
-        <v>140</v>
-      </c>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="170" t="s">
-        <v>140</v>
-      </c>
-      <c r="S28" s="171"/>
-      <c r="T28" s="172"/>
-    </row>
-    <row r="29" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="201"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="175"/>
-    </row>
-    <row r="30" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="201"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="168">
-        <v>1</v>
-      </c>
-      <c r="K30" s="176" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="176" t="s">
+      <c r="AI39" s="130"/>
+      <c r="AJ39" s="130"/>
+      <c r="AK39" s="131"/>
+      <c r="AL39" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="S30" s="177"/>
-      <c r="T30" s="178"/>
-    </row>
-    <row r="31" spans="4:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="201"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="179"/>
-      <c r="S31" s="180"/>
-      <c r="T31" s="181"/>
-    </row>
-    <row r="32" spans="4:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="201"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="196">
+      <c r="AM39" s="130"/>
+      <c r="AN39" s="131"/>
+      <c r="AO39" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP39" s="130"/>
+      <c r="AQ39" s="131"/>
+    </row>
+    <row r="40" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="179"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="179"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
+      <c r="Q40" s="179"/>
+      <c r="R40" s="179"/>
+      <c r="S40" s="179"/>
+      <c r="T40" s="179"/>
+      <c r="AC40" s="127"/>
+      <c r="AD40" s="132"/>
+      <c r="AE40" s="133"/>
+      <c r="AF40" s="134"/>
+      <c r="AG40" s="128"/>
+      <c r="AH40" s="135"/>
+      <c r="AI40" s="136"/>
+      <c r="AJ40" s="136"/>
+      <c r="AK40" s="137"/>
+      <c r="AL40" s="135"/>
+      <c r="AM40" s="136"/>
+      <c r="AN40" s="137"/>
+      <c r="AO40" s="135"/>
+      <c r="AP40" s="136"/>
+      <c r="AQ40" s="137"/>
+    </row>
+    <row r="41" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="178"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="179"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="179"/>
+      <c r="O41" s="179"/>
+      <c r="P41" s="179"/>
+      <c r="Q41" s="179"/>
+      <c r="R41" s="179"/>
+      <c r="S41" s="179"/>
+      <c r="T41" s="179"/>
+      <c r="AC41" s="127"/>
+      <c r="AD41" s="132"/>
+      <c r="AE41" s="133"/>
+      <c r="AF41" s="134"/>
+      <c r="AG41" s="126">
         <v>2</v>
       </c>
-      <c r="K32" s="176" t="s">
-        <v>180</v>
-      </c>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="178"/>
-      <c r="O32" s="176" t="s">
-        <v>181</v>
-      </c>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="176" t="s">
-        <v>183</v>
-      </c>
-      <c r="S32" s="177"/>
-      <c r="T32" s="178"/>
-    </row>
-    <row r="33" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D33" s="201"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="179"/>
-      <c r="S33" s="180"/>
-      <c r="T33" s="181"/>
-    </row>
-    <row r="34" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="201"/>
-      <c r="E34" s="192"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="196">
-        <v>3</v>
-      </c>
-      <c r="K34" s="176" t="s">
-        <v>185</v>
-      </c>
-      <c r="L34" s="177"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="176" t="s">
+      <c r="AH41" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="176" t="s">
+      <c r="AI41" s="130"/>
+      <c r="AJ41" s="130"/>
+      <c r="AK41" s="131"/>
+      <c r="AL41" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="S34" s="177"/>
-      <c r="T34" s="178"/>
-    </row>
-    <row r="35" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D35" s="201"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="179"/>
-      <c r="S35" s="180"/>
-      <c r="T35" s="181"/>
-    </row>
-    <row r="36" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="201"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="196">
-        <v>4</v>
-      </c>
-      <c r="K36" s="176" t="s">
-        <v>178</v>
-      </c>
-      <c r="L36" s="177"/>
-      <c r="M36" s="177"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="176" t="s">
+      <c r="AM41" s="130"/>
+      <c r="AN41" s="131"/>
+      <c r="AO41" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="P36" s="177"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="176" t="s">
-        <v>194</v>
-      </c>
-      <c r="S36" s="177"/>
-      <c r="T36" s="178"/>
-    </row>
-    <row r="37" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D37" s="201"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="181"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="181"/>
-      <c r="R37" s="179"/>
-      <c r="S37" s="180"/>
-      <c r="T37" s="181"/>
-      <c r="AC37" s="159" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD37" s="182"/>
-      <c r="AE37" s="183"/>
-      <c r="AF37" s="184"/>
-      <c r="AG37" s="159">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="182" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI37" s="183"/>
-      <c r="AJ37" s="183"/>
-      <c r="AK37" s="184"/>
-      <c r="AL37" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM37" s="162"/>
-      <c r="AN37" s="163"/>
-      <c r="AO37" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP37" s="162"/>
-      <c r="AQ37" s="163"/>
-    </row>
-    <row r="38" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D38" s="201"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="168" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="170"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="168">
-        <v>0</v>
-      </c>
-      <c r="K38" s="176" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="177"/>
-      <c r="M38" s="177"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="170" t="s">
-        <v>140</v>
-      </c>
-      <c r="P38" s="171"/>
-      <c r="Q38" s="172"/>
-      <c r="R38" s="170" t="s">
-        <v>140</v>
-      </c>
-      <c r="S38" s="171"/>
-      <c r="T38" s="172"/>
-      <c r="AC38" s="188"/>
-      <c r="AD38" s="193"/>
-      <c r="AE38" s="194"/>
-      <c r="AF38" s="195"/>
-      <c r="AG38" s="160"/>
-      <c r="AH38" s="185"/>
-      <c r="AI38" s="186"/>
-      <c r="AJ38" s="186"/>
-      <c r="AK38" s="187"/>
-      <c r="AL38" s="164"/>
-      <c r="AM38" s="165"/>
-      <c r="AN38" s="166"/>
-      <c r="AO38" s="164"/>
-      <c r="AP38" s="165"/>
-      <c r="AQ38" s="166"/>
-    </row>
-    <row r="39" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="201"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="181"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="174"/>
-      <c r="T39" s="175"/>
-      <c r="AC39" s="188"/>
-      <c r="AD39" s="193"/>
-      <c r="AE39" s="194"/>
-      <c r="AF39" s="195"/>
-      <c r="AG39" s="159">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="182" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI39" s="183"/>
-      <c r="AJ39" s="183"/>
-      <c r="AK39" s="184"/>
-      <c r="AL39" s="182" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM39" s="183"/>
-      <c r="AN39" s="184"/>
-      <c r="AO39" s="182" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP39" s="183"/>
-      <c r="AQ39" s="184"/>
-    </row>
-    <row r="40" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D40" s="201"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="168">
-        <v>1</v>
-      </c>
-      <c r="K40" s="176" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="177"/>
-      <c r="M40" s="177"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="176" t="s">
-        <v>179</v>
-      </c>
-      <c r="P40" s="177"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="S40" s="177"/>
-      <c r="T40" s="178"/>
-      <c r="AC40" s="188"/>
-      <c r="AD40" s="193"/>
-      <c r="AE40" s="194"/>
-      <c r="AF40" s="195"/>
-      <c r="AG40" s="160"/>
-      <c r="AH40" s="185"/>
-      <c r="AI40" s="186"/>
-      <c r="AJ40" s="186"/>
-      <c r="AK40" s="187"/>
-      <c r="AL40" s="185"/>
-      <c r="AM40" s="186"/>
-      <c r="AN40" s="187"/>
-      <c r="AO40" s="185"/>
-      <c r="AP40" s="186"/>
-      <c r="AQ40" s="187"/>
-    </row>
-    <row r="41" spans="4:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="202"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="169"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="169"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="180"/>
-      <c r="Q41" s="181"/>
-      <c r="R41" s="179"/>
-      <c r="S41" s="180"/>
-      <c r="T41" s="181"/>
-      <c r="AC41" s="188"/>
-      <c r="AD41" s="193"/>
-      <c r="AE41" s="194"/>
-      <c r="AF41" s="195"/>
-      <c r="AG41" s="159">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="182" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI41" s="183"/>
-      <c r="AJ41" s="183"/>
-      <c r="AK41" s="184"/>
-      <c r="AL41" s="182" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM41" s="183"/>
-      <c r="AN41" s="184"/>
-      <c r="AO41" s="182" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP41" s="183"/>
-      <c r="AQ41" s="184"/>
+      <c r="AP41" s="130"/>
+      <c r="AQ41" s="131"/>
     </row>
     <row r="42" spans="4:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="G42" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="AC42" s="160"/>
-      <c r="AD42" s="185"/>
-      <c r="AE42" s="186"/>
-      <c r="AF42" s="187"/>
-      <c r="AG42" s="160"/>
-      <c r="AH42" s="185"/>
-      <c r="AI42" s="186"/>
-      <c r="AJ42" s="186"/>
-      <c r="AK42" s="187"/>
-      <c r="AL42" s="185"/>
-      <c r="AM42" s="186"/>
-      <c r="AN42" s="187"/>
-      <c r="AO42" s="185"/>
-      <c r="AP42" s="186"/>
-      <c r="AQ42" s="187"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="178"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="179"/>
+      <c r="M42" s="179"/>
+      <c r="N42" s="179"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="179"/>
+      <c r="Q42" s="179"/>
+      <c r="R42" s="179"/>
+      <c r="S42" s="179"/>
+      <c r="T42" s="179"/>
+      <c r="AC42" s="128"/>
+      <c r="AD42" s="135"/>
+      <c r="AE42" s="136"/>
+      <c r="AF42" s="137"/>
+      <c r="AG42" s="128"/>
+      <c r="AH42" s="135"/>
+      <c r="AI42" s="136"/>
+      <c r="AJ42" s="136"/>
+      <c r="AK42" s="137"/>
+      <c r="AL42" s="135"/>
+      <c r="AM42" s="136"/>
+      <c r="AN42" s="137"/>
+      <c r="AO42" s="135"/>
+      <c r="AP42" s="136"/>
+      <c r="AQ42" s="137"/>
     </row>
     <row r="43" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -11954,20 +10880,20 @@
       <c r="T43" s="30"/>
     </row>
     <row r="44" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
     </row>
     <row r="45" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="198"/>
-      <c r="E45" s="198"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
     </row>
     <row r="46" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
     </row>
     <row r="47" spans="4:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
     </row>
     <row r="48" spans="4:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="33"/>
@@ -11978,54 +10904,16 @@
       <c r="E49" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="R38:T39"/>
-    <mergeCell ref="R40:T41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:I41"/>
-    <mergeCell ref="K38:N39"/>
-    <mergeCell ref="K40:N41"/>
-    <mergeCell ref="O38:Q39"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="AC37:AC42"/>
-    <mergeCell ref="AD37:AF42"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="AL37:AN38"/>
-    <mergeCell ref="AL39:AN40"/>
-    <mergeCell ref="AL41:AN42"/>
-    <mergeCell ref="AO37:AQ38"/>
-    <mergeCell ref="AO39:AQ40"/>
-    <mergeCell ref="AO41:AQ42"/>
-    <mergeCell ref="AG37:AG38"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AH37:AK38"/>
-    <mergeCell ref="AH39:AK40"/>
-    <mergeCell ref="AH41:AK42"/>
-    <mergeCell ref="R36:T37"/>
-    <mergeCell ref="O36:Q37"/>
-    <mergeCell ref="K36:N37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="O32:Q33"/>
-    <mergeCell ref="R32:T33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:N35"/>
-    <mergeCell ref="O34:Q35"/>
-    <mergeCell ref="R34:T35"/>
-    <mergeCell ref="F28:F37"/>
-    <mergeCell ref="G28:I37"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="O30:Q31"/>
-    <mergeCell ref="K28:N29"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="D15:E41"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="R28:T29"/>
-    <mergeCell ref="R30:T31"/>
+  <mergeCells count="39">
+    <mergeCell ref="T9:V10"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="T5:V6"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="S9:S10"/>
     <mergeCell ref="D3:E10"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="Q7:Q8"/>
@@ -12042,15 +10930,20 @@
     <mergeCell ref="G7:O8"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="T5:V6"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="T7:V8"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="AO37:AQ38"/>
+    <mergeCell ref="AO39:AQ40"/>
+    <mergeCell ref="AO41:AQ42"/>
+    <mergeCell ref="AG37:AG38"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AH37:AK38"/>
+    <mergeCell ref="AH39:AK40"/>
+    <mergeCell ref="AH41:AK42"/>
+    <mergeCell ref="AC37:AC42"/>
+    <mergeCell ref="AD37:AF42"/>
+    <mergeCell ref="AL37:AN38"/>
+    <mergeCell ref="AL39:AN40"/>
+    <mergeCell ref="AL41:AN42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
